--- a/sequences/04_pairings.xlsx
+++ b/sequences/04_pairings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="263">
   <si>
     <t>image</t>
   </si>
@@ -25,724 +25,781 @@
     <t>category</t>
   </si>
   <si>
+    <t>dog/dog084.png</t>
+  </si>
+  <si>
+    <t>car/car069.png</t>
+  </si>
+  <si>
+    <t>face/face064.png</t>
+  </si>
+  <si>
+    <t>face/face069.png</t>
+  </si>
+  <si>
+    <t>face/face071.png</t>
+  </si>
+  <si>
+    <t>car/car091.png</t>
+  </si>
+  <si>
+    <t>dog/dog088.png</t>
+  </si>
+  <si>
+    <t>flower/flower079.png</t>
+  </si>
+  <si>
+    <t>face/face083.png</t>
+  </si>
+  <si>
+    <t>flower/flower081.png</t>
+  </si>
+  <si>
+    <t>face/face086.png</t>
+  </si>
+  <si>
+    <t>dog/dog077.png</t>
+  </si>
+  <si>
+    <t>car/car085.png</t>
+  </si>
+  <si>
+    <t>car/car078.png</t>
+  </si>
+  <si>
+    <t>face/face088.png</t>
+  </si>
+  <si>
+    <t>car/car082.png</t>
+  </si>
+  <si>
+    <t>face/face082.png</t>
+  </si>
+  <si>
+    <t>flower/flower071.png</t>
+  </si>
+  <si>
+    <t>car/car092.png</t>
+  </si>
+  <si>
+    <t>flower/flower068.png</t>
+  </si>
+  <si>
+    <t>dog/dog072.png</t>
+  </si>
+  <si>
+    <t>car/car095.png</t>
+  </si>
+  <si>
+    <t>dog/dog079.png</t>
+  </si>
+  <si>
+    <t>car/car083.png</t>
+  </si>
+  <si>
+    <t>car/car079.png</t>
+  </si>
+  <si>
+    <t>dog/dog086.png</t>
+  </si>
+  <si>
+    <t>car/car076.png</t>
+  </si>
+  <si>
+    <t>face/face090.png</t>
+  </si>
+  <si>
+    <t>flower/flower074.png</t>
+  </si>
+  <si>
+    <t>flower/flower083.png</t>
+  </si>
+  <si>
+    <t>dog/dog067.png</t>
+  </si>
+  <si>
+    <t>dog/dog094.png</t>
+  </si>
+  <si>
+    <t>face/face067.png</t>
+  </si>
+  <si>
+    <t>flower/flower100.png</t>
+  </si>
+  <si>
+    <t>car/car072.png</t>
+  </si>
+  <si>
+    <t>car/car081.png</t>
+  </si>
+  <si>
+    <t>car/car068.png</t>
+  </si>
+  <si>
+    <t>flower/flower088.png</t>
+  </si>
+  <si>
+    <t>flower/flower097.png</t>
+  </si>
+  <si>
+    <t>flower/flower098.png</t>
+  </si>
+  <si>
+    <t>car/car101.png</t>
+  </si>
+  <si>
+    <t>car/car086.png</t>
+  </si>
+  <si>
+    <t>flower/flower096.png</t>
+  </si>
+  <si>
+    <t>car/car084.png</t>
+  </si>
+  <si>
+    <t>dog/dog080.png</t>
+  </si>
+  <si>
+    <t>flower/flower070.png</t>
+  </si>
+  <si>
+    <t>face/face103.png</t>
+  </si>
+  <si>
+    <t>flower/flower094.png</t>
+  </si>
+  <si>
+    <t>car/car100.png</t>
+  </si>
+  <si>
+    <t>car/car075.png</t>
+  </si>
+  <si>
     <t>flower/flower072.png</t>
   </si>
   <si>
-    <t>flower/flower087.png</t>
-  </si>
-  <si>
-    <t>face/face076.png</t>
-  </si>
-  <si>
-    <t>face/face067.png</t>
-  </si>
-  <si>
-    <t>dog/dog069.png</t>
-  </si>
-  <si>
-    <t>car/car067.png</t>
-  </si>
-  <si>
-    <t>flower/flower078.png</t>
-  </si>
-  <si>
-    <t>car/car072.png</t>
-  </si>
-  <si>
-    <t>car/car076.png</t>
-  </si>
-  <si>
-    <t>dog/dog065.png</t>
-  </si>
-  <si>
-    <t>face/face087.png</t>
+    <t>car/car093.png</t>
+  </si>
+  <si>
+    <t>dog/dog064.png</t>
+  </si>
+  <si>
+    <t>car/car090.png</t>
+  </si>
+  <si>
+    <t>dog/dog090.png</t>
+  </si>
+  <si>
+    <t>car/car071.png</t>
+  </si>
+  <si>
+    <t>car/car099.png</t>
+  </si>
+  <si>
+    <t>dog/dog093.png</t>
+  </si>
+  <si>
+    <t>car/car074.png</t>
+  </si>
+  <si>
+    <t>flower/flower107.png</t>
+  </si>
+  <si>
+    <t>car/car087.png</t>
+  </si>
+  <si>
+    <t>dog/dog070.png</t>
+  </si>
+  <si>
+    <t>face/face095.png</t>
   </si>
   <si>
     <t>face/face091.png</t>
   </si>
   <si>
-    <t>car/car096.png</t>
+    <t>flower/flower106.png</t>
+  </si>
+  <si>
+    <t>face/face107.png</t>
+  </si>
+  <si>
+    <t>car/car102.png</t>
+  </si>
+  <si>
+    <t>dog/dog081.png</t>
+  </si>
+  <si>
+    <t>face/face100.png</t>
+  </si>
+  <si>
+    <t>dog/dog109.png</t>
+  </si>
+  <si>
+    <t>face/face075.png</t>
   </si>
   <si>
     <t>face/face081.png</t>
   </si>
   <si>
+    <t>flower/flower075.png</t>
+  </si>
+  <si>
+    <t>dog/dog085.png</t>
+  </si>
+  <si>
+    <t>face/face093.png</t>
+  </si>
+  <si>
+    <t>dog/dog095.png</t>
+  </si>
+  <si>
+    <t>face/face105.png</t>
+  </si>
+  <si>
+    <t>face/face102.png</t>
+  </si>
+  <si>
+    <t>car/car116.png</t>
+  </si>
+  <si>
+    <t>dog/dog098.png</t>
+  </si>
+  <si>
+    <t>flower/flower089.png</t>
+  </si>
+  <si>
+    <t>flower/flower091.png</t>
+  </si>
+  <si>
+    <t>face/face098.png</t>
+  </si>
+  <si>
+    <t>dog/dog082.png</t>
+  </si>
+  <si>
+    <t>face/face113.png</t>
+  </si>
+  <si>
+    <t>dog/dog113.png</t>
+  </si>
+  <si>
+    <t>face/face089.png</t>
+  </si>
+  <si>
+    <t>dog/dog087.png</t>
+  </si>
+  <si>
+    <t>car/car121.png</t>
+  </si>
+  <si>
+    <t>dog/dog114.png</t>
+  </si>
+  <si>
+    <t>dog/dog076.png</t>
+  </si>
+  <si>
+    <t>face/face112.png</t>
+  </si>
+  <si>
+    <t>flower/flower085.png</t>
+  </si>
+  <si>
+    <t>car/car118.png</t>
+  </si>
+  <si>
+    <t>dog/dog116.png</t>
+  </si>
+  <si>
+    <t>flower/flower065.png</t>
+  </si>
+  <si>
+    <t>face/face066.png</t>
+  </si>
+  <si>
+    <t>dog/dog092.png</t>
+  </si>
+  <si>
+    <t>flower/flower111.png</t>
+  </si>
+  <si>
+    <t>face/face114.png</t>
+  </si>
+  <si>
+    <t>dog/dog108.png</t>
+  </si>
+  <si>
+    <t>dog/dog078.png</t>
+  </si>
+  <si>
+    <t>flower/flower116.png</t>
+  </si>
+  <si>
+    <t>flower/flower073.png</t>
+  </si>
+  <si>
+    <t>car/car105.png</t>
+  </si>
+  <si>
+    <t>flower/flower069.png</t>
+  </si>
+  <si>
+    <t>flower/flower103.png</t>
+  </si>
+  <si>
+    <t>car/car066.png</t>
+  </si>
+  <si>
+    <t>dog/dog097.png</t>
+  </si>
+  <si>
+    <t>dog/dog068.png</t>
+  </si>
+  <si>
+    <t>dog/dog091.png</t>
+  </si>
+  <si>
+    <t>face/face111.png</t>
+  </si>
+  <si>
+    <t>face/face099.png</t>
+  </si>
+  <si>
+    <t>face/face120.png</t>
+  </si>
+  <si>
+    <t>flower/flower064.png</t>
+  </si>
+  <si>
     <t>face/face074.png</t>
   </si>
   <si>
-    <t>dog/dog077.png</t>
-  </si>
-  <si>
-    <t>dog/dog070.png</t>
-  </si>
-  <si>
-    <t>dog/dog068.png</t>
-  </si>
-  <si>
-    <t>car/car070.png</t>
-  </si>
-  <si>
-    <t>face/face094.png</t>
-  </si>
-  <si>
-    <t>car/car084.png</t>
-  </si>
-  <si>
-    <t>dog/dog078.png</t>
-  </si>
-  <si>
-    <t>dog/dog064.png</t>
-  </si>
-  <si>
-    <t>dog/dog072.png</t>
-  </si>
-  <si>
-    <t>car/car073.png</t>
-  </si>
-  <si>
-    <t>dog/dog079.png</t>
-  </si>
-  <si>
-    <t>face/face100.png</t>
-  </si>
-  <si>
-    <t>flower/flower093.png</t>
-  </si>
-  <si>
-    <t>face/face098.png</t>
-  </si>
-  <si>
-    <t>flower/flower082.png</t>
-  </si>
-  <si>
-    <t>flower/flower066.png</t>
-  </si>
-  <si>
-    <t>dog/dog083.png</t>
-  </si>
-  <si>
-    <t>dog/dog100.png</t>
-  </si>
-  <si>
-    <t>flower/flower074.png</t>
-  </si>
-  <si>
-    <t>face/face082.png</t>
-  </si>
-  <si>
-    <t>flower/flower065.png</t>
-  </si>
-  <si>
-    <t>face/face083.png</t>
-  </si>
-  <si>
-    <t>face/face075.png</t>
-  </si>
-  <si>
-    <t>flower/flower069.png</t>
-  </si>
-  <si>
-    <t>flower/flower075.png</t>
-  </si>
-  <si>
-    <t>flower/flower095.png</t>
-  </si>
-  <si>
-    <t>car/car085.png</t>
-  </si>
-  <si>
-    <t>flower/flower068.png</t>
-  </si>
-  <si>
-    <t>face/face101.png</t>
-  </si>
-  <si>
-    <t>dog/dog090.png</t>
-  </si>
-  <si>
-    <t>face/face097.png</t>
-  </si>
-  <si>
-    <t>flower/flower102.png</t>
-  </si>
-  <si>
-    <t>car/car090.png</t>
-  </si>
-  <si>
-    <t>car/car101.png</t>
-  </si>
-  <si>
-    <t>dog/dog076.png</t>
-  </si>
-  <si>
-    <t>dog/dog080.png</t>
-  </si>
-  <si>
-    <t>dog/dog066.png</t>
-  </si>
-  <si>
-    <t>dog/dog075.png</t>
-  </si>
-  <si>
-    <t>face/face078.png</t>
-  </si>
-  <si>
-    <t>face/face095.png</t>
-  </si>
-  <si>
-    <t>car/car087.png</t>
-  </si>
-  <si>
-    <t>face/face099.png</t>
-  </si>
-  <si>
-    <t>flower/flower089.png</t>
-  </si>
-  <si>
-    <t>face/face068.png</t>
-  </si>
-  <si>
-    <t>flower/flower081.png</t>
-  </si>
-  <si>
-    <t>flower/flower079.png</t>
-  </si>
-  <si>
-    <t>dog/dog108.png</t>
-  </si>
-  <si>
-    <t>face/face102.png</t>
-  </si>
-  <si>
-    <t>flower/flower077.png</t>
-  </si>
-  <si>
-    <t>flower/flower083.png</t>
-  </si>
-  <si>
-    <t>face/face072.png</t>
-  </si>
-  <si>
-    <t>car/car100.png</t>
-  </si>
-  <si>
-    <t>car/car092.png</t>
-  </si>
-  <si>
-    <t>car/car104.png</t>
+    <t>car/car080.png</t>
+  </si>
+  <si>
+    <t>face/face118.png</t>
+  </si>
+  <si>
+    <t>flower/flower118.png</t>
+  </si>
+  <si>
+    <t>flower/flower123.png</t>
+  </si>
+  <si>
+    <t>face/face092.png</t>
+  </si>
+  <si>
+    <t>flower/flower112.png</t>
+  </si>
+  <si>
+    <t>flower/flower080.png</t>
+  </si>
+  <si>
+    <t>car/car112.png</t>
+  </si>
+  <si>
+    <t>face/face121.png</t>
+  </si>
+  <si>
+    <t>flower/flower101.png</t>
+  </si>
+  <si>
+    <t>dog/dog099.png</t>
   </si>
   <si>
     <t>dog/dog110.png</t>
   </si>
   <si>
-    <t>dog/dog109.png</t>
-  </si>
-  <si>
-    <t>car/car098.png</t>
-  </si>
-  <si>
-    <t>flower/flower070.png</t>
-  </si>
-  <si>
-    <t>dog/dog074.png</t>
-  </si>
-  <si>
-    <t>car/car094.png</t>
-  </si>
-  <si>
-    <t>dog/dog073.png</t>
-  </si>
-  <si>
-    <t>dog/dog089.png</t>
-  </si>
-  <si>
-    <t>car/car109.png</t>
-  </si>
-  <si>
-    <t>face/face110.png</t>
-  </si>
-  <si>
-    <t>flower/flower067.png</t>
-  </si>
-  <si>
-    <t>face/face080.png</t>
-  </si>
-  <si>
-    <t>flower/flower097.png</t>
-  </si>
-  <si>
-    <t>face/face107.png</t>
-  </si>
-  <si>
-    <t>flower/flower098.png</t>
-  </si>
-  <si>
-    <t>car/car088.png</t>
-  </si>
-  <si>
-    <t>face/face115.png</t>
-  </si>
-  <si>
-    <t>dog/dog115.png</t>
-  </si>
-  <si>
-    <t>flower/flower084.png</t>
-  </si>
-  <si>
-    <t>car/car079.png</t>
-  </si>
-  <si>
-    <t>car/car086.png</t>
-  </si>
-  <si>
-    <t>car/car110.png</t>
-  </si>
-  <si>
-    <t>dog/dog114.png</t>
-  </si>
-  <si>
-    <t>car/car091.png</t>
-  </si>
-  <si>
-    <t>car/car108.png</t>
-  </si>
-  <si>
-    <t>flower/flower106.png</t>
-  </si>
-  <si>
-    <t>flower/flower076.png</t>
-  </si>
-  <si>
-    <t>dog/dog095.png</t>
-  </si>
-  <si>
-    <t>face/face112.png</t>
-  </si>
-  <si>
-    <t>face/face116.png</t>
-  </si>
-  <si>
-    <t>dog/dog086.png</t>
-  </si>
-  <si>
-    <t>car/car116.png</t>
-  </si>
-  <si>
-    <t>flower/flower090.png</t>
-  </si>
-  <si>
-    <t>face/face088.png</t>
-  </si>
-  <si>
-    <t>car/car078.png</t>
-  </si>
-  <si>
-    <t>car/car082.png</t>
-  </si>
-  <si>
-    <t>car/car075.png</t>
-  </si>
-  <si>
-    <t>flower/flower112.png</t>
-  </si>
-  <si>
-    <t>face/face104.png</t>
-  </si>
-  <si>
-    <t>car/car111.png</t>
-  </si>
-  <si>
-    <t>face/face089.png</t>
-  </si>
-  <si>
-    <t>dog/dog101.png</t>
-  </si>
-  <si>
-    <t>car/car114.png</t>
-  </si>
-  <si>
-    <t>dog/dog102.png</t>
-  </si>
-  <si>
-    <t>flower/flower108.png</t>
-  </si>
-  <si>
-    <t>flower/flower105.png</t>
-  </si>
-  <si>
-    <t>dog/dog116.png</t>
-  </si>
-  <si>
-    <t>car/car074.png</t>
-  </si>
-  <si>
-    <t>flower/flower086.png</t>
-  </si>
-  <si>
-    <t>face/face114.png</t>
-  </si>
-  <si>
-    <t>dog/dog122.png</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>train</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>tape</t>
-  </si>
-  <si>
-    <t>plane</t>
-  </si>
-  <si>
-    <t>peace</t>
-  </si>
-  <si>
-    <t>leg</t>
-  </si>
-  <si>
-    <t>frost</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>cart</t>
-  </si>
-  <si>
-    <t>yarn</t>
-  </si>
-  <si>
-    <t>leaf</t>
-  </si>
-  <si>
-    <t>nail</t>
-  </si>
-  <si>
-    <t>nose</t>
-  </si>
-  <si>
-    <t>ship</t>
-  </si>
-  <si>
-    <t>mug</t>
-  </si>
-  <si>
-    <t>rat</t>
-  </si>
-  <si>
-    <t>ring</t>
-  </si>
-  <si>
-    <t>dance</t>
-  </si>
-  <si>
-    <t>quilt</t>
-  </si>
-  <si>
-    <t>fly</t>
-  </si>
-  <si>
-    <t>joy</t>
-  </si>
-  <si>
-    <t>sing</t>
-  </si>
-  <si>
-    <t>sun</t>
-  </si>
-  <si>
-    <t>pen</t>
-  </si>
-  <si>
-    <t>snow</t>
-  </si>
-  <si>
-    <t>kite</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>lie</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>eye</t>
-  </si>
-  <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>four</t>
-  </si>
-  <si>
-    <t>desk</t>
-  </si>
-  <si>
-    <t>hop</t>
-  </si>
-  <si>
-    <t>sock</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>faith</t>
-  </si>
-  <si>
-    <t>ten</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>jar</t>
+    <t>trösten</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>stehen</t>
+  </si>
+  <si>
+    <t>bremsen</t>
+  </si>
+  <si>
+    <t>nähen</t>
+  </si>
+  <si>
+    <t>regen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>melden</t>
+  </si>
+  <si>
+    <t>sondern</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>mühen</t>
+  </si>
+  <si>
+    <t>plaudern</t>
+  </si>
+  <si>
+    <t>proben</t>
+  </si>
+  <si>
+    <t>langen</t>
+  </si>
+  <si>
+    <t>putzen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>bomben</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>läuten</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>sagen</t>
+  </si>
+  <si>
+    <t>kürzen</t>
+  </si>
+  <si>
+    <t>baden</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>treffen</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>träumen</t>
+  </si>
+  <si>
+    <t>lernen</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>faulen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>garen</t>
+  </si>
+  <si>
+    <t>osten</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>nehmen</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>wollen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>frischen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>schätzen</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>spuren</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>strahlen</t>
+  </si>
+  <si>
+    <t>drucken</t>
+  </si>
+  <si>
+    <t>doppeln</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>hexen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>triefen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>kranken</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>raten</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>wetten</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>lösen</t>
+  </si>
+  <si>
+    <t>wecken</t>
+  </si>
+  <si>
+    <t>prüfen</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>sieben</t>
+  </si>
+  <si>
+    <t>meistern</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>ahnen</t>
+  </si>
+  <si>
+    <t>widmen</t>
+  </si>
+  <si>
+    <t>kugeln</t>
+  </si>
+  <si>
+    <t>lauten</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>nähern</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>haken</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>rauben</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>schlampen</t>
+  </si>
+  <si>
+    <t>klagen</t>
+  </si>
+  <si>
+    <t>gnaden</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>trotzen</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>wiegen</t>
   </si>
   <si>
     <t>dog</t>
   </si>
   <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>fog</t>
-  </si>
-  <si>
-    <t>twelve</t>
-  </si>
-  <si>
-    <t>quack</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>bed</t>
-  </si>
-  <si>
-    <t>vase</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>gold</t>
+    <t>car</t>
   </si>
   <si>
     <t>face</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>wolf</t>
-  </si>
-  <si>
-    <t>skip</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>lamp</t>
-  </si>
-  <si>
-    <t>juice</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>cloud</t>
-  </si>
-  <si>
-    <t>pink</t>
-  </si>
-  <si>
-    <t>hat</t>
-  </si>
-  <si>
-    <t>heat</t>
-  </si>
-  <si>
-    <t>six</t>
-  </si>
-  <si>
-    <t>goat</t>
-  </si>
-  <si>
-    <t>fruit</t>
-  </si>
-  <si>
-    <t>walk</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>sled</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>hail</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>truck</t>
-  </si>
-  <si>
-    <t>bike</t>
-  </si>
-  <si>
-    <t>mouse</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>sky</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>jump</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>zoo</t>
-  </si>
-  <si>
-    <t>hen</t>
-  </si>
-  <si>
-    <t>bus</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>eight</t>
-  </si>
-  <si>
-    <t>van</t>
-  </si>
-  <si>
-    <t>teal</t>
-  </si>
-  <si>
-    <t>swim</t>
-  </si>
-  <si>
-    <t>ear</t>
-  </si>
-  <si>
-    <t>storm</t>
-  </si>
-  <si>
-    <t>ink</t>
-  </si>
-  <si>
-    <t>fork</t>
-  </si>
-  <si>
-    <t>rain</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>egg</t>
-  </si>
-  <si>
-    <t>arm</t>
-  </si>
-  <si>
-    <t>soup</t>
-  </si>
-  <si>
-    <t>crawl</t>
-  </si>
-  <si>
-    <t>net</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>milk</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>cold</t>
-  </si>
-  <si>
-    <t>chair</t>
-  </si>
-  <si>
-    <t>mouth</t>
-  </si>
-  <si>
-    <t>five</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>gray</t>
-  </si>
-  <si>
-    <t>boat</t>
   </si>
   <si>
     <t>flower</t>
@@ -1103,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1128,10 +1185,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1142,10 +1199,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1156,10 +1213,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1170,10 +1227,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1184,10 +1241,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1198,10 +1255,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1212,10 +1269,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1226,10 +1283,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1240,10 +1297,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1254,10 +1311,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1268,10 +1325,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1282,10 +1339,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1296,10 +1353,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1310,10 +1367,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1324,10 +1381,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1338,10 +1395,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1352,10 +1409,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1366,10 +1423,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1380,10 +1437,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1394,10 +1451,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1408,10 +1465,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D22" t="s">
-        <v>178</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1422,10 +1479,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1436,10 +1493,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D24" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1450,10 +1507,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D25" t="s">
-        <v>166</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1464,10 +1521,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D26" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1478,10 +1535,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1492,10 +1549,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1506,10 +1563,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D29" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1520,10 +1577,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1534,10 +1591,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1548,10 +1605,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1562,10 +1619,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D33" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1576,10 +1633,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D34" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1590,10 +1647,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D35" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1604,10 +1661,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D36" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1618,10 +1675,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D37" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1632,10 +1689,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D38" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1646,10 +1703,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D39" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1660,10 +1717,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D40" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1674,10 +1731,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D41" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1688,10 +1745,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D42" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1702,10 +1759,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D43" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1716,10 +1773,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D44" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1730,10 +1787,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D45" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1744,10 +1801,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1758,10 +1815,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D47" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1772,10 +1829,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D48" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1786,10 +1843,10 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D49" t="s">
-        <v>178</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1800,10 +1857,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D50" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1814,10 +1871,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D51" t="s">
-        <v>166</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1828,10 +1885,10 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D52" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1842,10 +1899,10 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D53" t="s">
-        <v>166</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1856,10 +1913,10 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D54" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1870,10 +1927,10 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D55" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1884,10 +1941,10 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D56" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1898,10 +1955,10 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D57" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1912,10 +1969,10 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D58" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1926,10 +1983,10 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D59" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1940,10 +1997,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D60" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1954,10 +2011,10 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D61" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1968,10 +2025,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D62" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1982,10 +2039,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D63" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1996,10 +2053,10 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D64" t="s">
-        <v>177</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2010,10 +2067,10 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D65" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2024,10 +2081,10 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D66" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2038,10 +2095,10 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D67" t="s">
-        <v>177</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2052,10 +2109,10 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D68" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2066,10 +2123,10 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D69" t="s">
-        <v>178</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2080,10 +2137,10 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D70" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2094,10 +2151,10 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D71" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2108,10 +2165,10 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D72" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2122,10 +2179,10 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D73" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2136,10 +2193,10 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D74" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2150,10 +2207,10 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D75" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2164,10 +2221,10 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D76" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2178,10 +2235,10 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D77" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2192,10 +2249,10 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D78" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2206,10 +2263,10 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D79" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2220,10 +2277,10 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D80" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2234,10 +2291,10 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D81" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2248,10 +2305,10 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D82" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2262,10 +2319,10 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D83" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2276,10 +2333,10 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D84" t="s">
-        <v>177</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2290,10 +2347,10 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D85" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2304,10 +2361,10 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D86" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2318,10 +2375,10 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D87" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2332,10 +2389,10 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D88" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2346,10 +2403,10 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D89" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2360,10 +2417,10 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D90" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2374,10 +2431,10 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D91" t="s">
-        <v>178</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2388,10 +2445,10 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D92" t="s">
-        <v>178</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2402,10 +2459,10 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D93" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2416,10 +2473,10 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D94" t="s">
-        <v>178</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2430,10 +2487,10 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D95" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2444,10 +2501,10 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D96" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2458,10 +2515,10 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D97" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2472,10 +2529,10 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D98" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2486,10 +2543,10 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D99" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2500,10 +2557,10 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="D100" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2514,10 +2571,10 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D101" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2528,10 +2585,10 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D102" t="s">
-        <v>178</v>
+        <v>259</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2542,10 +2599,10 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D103" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2556,10 +2613,10 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D104" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2570,10 +2627,10 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="D105" t="s">
-        <v>178</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2584,10 +2641,10 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D106" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2598,10 +2655,10 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D107" t="s">
-        <v>178</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2612,10 +2669,10 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D108" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2626,10 +2683,10 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D109" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2640,10 +2697,10 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D110" t="s">
-        <v>178</v>
+        <v>259</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2654,10 +2711,10 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D111" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2668,10 +2725,10 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D112" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2682,10 +2739,10 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D113" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2696,10 +2753,10 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D114" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2710,10 +2767,10 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D115" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2724,10 +2781,10 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D116" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2738,10 +2795,10 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D117" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2752,10 +2809,10 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D118" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2766,10 +2823,10 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D119" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2780,10 +2837,10 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D120" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2794,10 +2851,122 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D121" t="s">
-        <v>166</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" t="s">
+        <v>251</v>
+      </c>
+      <c r="D122" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123" t="s">
+        <v>252</v>
+      </c>
+      <c r="D123" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>125</v>
+      </c>
+      <c r="C124" t="s">
+        <v>253</v>
+      </c>
+      <c r="D124" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125" t="s">
+        <v>254</v>
+      </c>
+      <c r="D125" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" t="s">
+        <v>255</v>
+      </c>
+      <c r="D126" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127" t="s">
+        <v>256</v>
+      </c>
+      <c r="D127" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128" t="s">
+        <v>257</v>
+      </c>
+      <c r="D128" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129" t="s">
+        <v>258</v>
+      </c>
+      <c r="D129" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/04_pairings.xlsx
+++ b/sequences/04_pairings.xlsx
@@ -25,784 +25,784 @@
     <t>category</t>
   </si>
   <si>
-    <t>dog/dog084.png</t>
+    <t>face/face074.png</t>
+  </si>
+  <si>
+    <t>flower/flower083.png</t>
+  </si>
+  <si>
+    <t>car/car074.png</t>
+  </si>
+  <si>
+    <t>flower/flower075.png</t>
+  </si>
+  <si>
+    <t>dog/dog076.png</t>
+  </si>
+  <si>
+    <t>car/car066.png</t>
+  </si>
+  <si>
+    <t>face/face095.png</t>
+  </si>
+  <si>
+    <t>dog/dog088.png</t>
+  </si>
+  <si>
+    <t>dog/dog089.png</t>
+  </si>
+  <si>
+    <t>dog/dog073.png</t>
+  </si>
+  <si>
+    <t>car/car071.png</t>
+  </si>
+  <si>
+    <t>flower/flower077.png</t>
+  </si>
+  <si>
+    <t>dog/dog065.png</t>
+  </si>
+  <si>
+    <t>dog/dog071.png</t>
+  </si>
+  <si>
+    <t>flower/flower068.png</t>
+  </si>
+  <si>
+    <t>face/face071.png</t>
+  </si>
+  <si>
+    <t>car/car089.png</t>
+  </si>
+  <si>
+    <t>dog/dog099.png</t>
+  </si>
+  <si>
+    <t>car/car067.png</t>
+  </si>
+  <si>
+    <t>face/face067.png</t>
+  </si>
+  <si>
+    <t>flower/flower086.png</t>
+  </si>
+  <si>
+    <t>car/car070.png</t>
+  </si>
+  <si>
+    <t>car/car097.png</t>
+  </si>
+  <si>
+    <t>face/face070.png</t>
+  </si>
+  <si>
+    <t>car/car096.png</t>
+  </si>
+  <si>
+    <t>dog/dog098.png</t>
+  </si>
+  <si>
+    <t>flower/flower080.png</t>
+  </si>
+  <si>
+    <t>dog/dog103.png</t>
+  </si>
+  <si>
+    <t>face/face092.png</t>
+  </si>
+  <si>
+    <t>face/face101.png</t>
+  </si>
+  <si>
+    <t>flower/flower093.png</t>
+  </si>
+  <si>
+    <t>car/car085.png</t>
+  </si>
+  <si>
+    <t>flower/flower099.png</t>
+  </si>
+  <si>
+    <t>face/face094.png</t>
+  </si>
+  <si>
+    <t>car/car099.png</t>
+  </si>
+  <si>
+    <t>flower/flower076.png</t>
+  </si>
+  <si>
+    <t>flower/flower087.png</t>
+  </si>
+  <si>
+    <t>dog/dog072.png</t>
+  </si>
+  <si>
+    <t>face/face076.png</t>
+  </si>
+  <si>
+    <t>face/face103.png</t>
+  </si>
+  <si>
+    <t>face/face104.png</t>
+  </si>
+  <si>
+    <t>flower/flower067.png</t>
+  </si>
+  <si>
+    <t>dog/dog079.png</t>
+  </si>
+  <si>
+    <t>car/car104.png</t>
+  </si>
+  <si>
+    <t>face/face090.png</t>
+  </si>
+  <si>
+    <t>flower/flower105.png</t>
+  </si>
+  <si>
+    <t>face/face100.png</t>
+  </si>
+  <si>
+    <t>face/face080.png</t>
+  </si>
+  <si>
+    <t>dog/dog078.png</t>
+  </si>
+  <si>
+    <t>car/car075.png</t>
+  </si>
+  <si>
+    <t>dog/dog067.png</t>
+  </si>
+  <si>
+    <t>dog/dog092.png</t>
+  </si>
+  <si>
+    <t>dog/dog108.png</t>
+  </si>
+  <si>
+    <t>face/face066.png</t>
+  </si>
+  <si>
+    <t>flower/flower088.png</t>
+  </si>
+  <si>
+    <t>face/face096.png</t>
+  </si>
+  <si>
+    <t>car/car090.png</t>
+  </si>
+  <si>
+    <t>flower/flower102.png</t>
+  </si>
+  <si>
+    <t>dog/dog077.png</t>
+  </si>
+  <si>
+    <t>face/face068.png</t>
+  </si>
+  <si>
+    <t>car/car076.png</t>
+  </si>
+  <si>
+    <t>dog/dog109.png</t>
+  </si>
+  <si>
+    <t>face/face112.png</t>
+  </si>
+  <si>
+    <t>flower/flower104.png</t>
+  </si>
+  <si>
+    <t>car/car082.png</t>
+  </si>
+  <si>
+    <t>face/face087.png</t>
+  </si>
+  <si>
+    <t>flower/flower085.png</t>
+  </si>
+  <si>
+    <t>dog/dog069.png</t>
+  </si>
+  <si>
+    <t>flower/flower111.png</t>
+  </si>
+  <si>
+    <t>dog/dog101.png</t>
+  </si>
+  <si>
+    <t>face/face082.png</t>
+  </si>
+  <si>
+    <t>car/car087.png</t>
+  </si>
+  <si>
+    <t>car/car093.png</t>
+  </si>
+  <si>
+    <t>face/face109.png</t>
+  </si>
+  <si>
+    <t>dog/dog075.png</t>
+  </si>
+  <si>
+    <t>flower/flower096.png</t>
+  </si>
+  <si>
+    <t>face/face088.png</t>
+  </si>
+  <si>
+    <t>flower/flower072.png</t>
+  </si>
+  <si>
+    <t>face/face102.png</t>
+  </si>
+  <si>
+    <t>face/face105.png</t>
+  </si>
+  <si>
+    <t>flower/flower078.png</t>
+  </si>
+  <si>
+    <t>car/car106.png</t>
+  </si>
+  <si>
+    <t>flower/flower073.png</t>
+  </si>
+  <si>
+    <t>dog/dog095.png</t>
+  </si>
+  <si>
+    <t>face/face069.png</t>
+  </si>
+  <si>
+    <t>flower/flower084.png</t>
+  </si>
+  <si>
+    <t>face/face118.png</t>
+  </si>
+  <si>
+    <t>dog/dog091.png</t>
+  </si>
+  <si>
+    <t>car/car083.png</t>
+  </si>
+  <si>
+    <t>flower/flower071.png</t>
+  </si>
+  <si>
+    <t>face/face064.png</t>
+  </si>
+  <si>
+    <t>dog/dog112.png</t>
+  </si>
+  <si>
+    <t>car/car073.png</t>
   </si>
   <si>
     <t>car/car069.png</t>
   </si>
   <si>
-    <t>face/face064.png</t>
-  </si>
-  <si>
-    <t>face/face069.png</t>
-  </si>
-  <si>
-    <t>face/face071.png</t>
-  </si>
-  <si>
-    <t>car/car091.png</t>
-  </si>
-  <si>
-    <t>dog/dog088.png</t>
-  </si>
-  <si>
-    <t>flower/flower079.png</t>
-  </si>
-  <si>
-    <t>face/face083.png</t>
-  </si>
-  <si>
-    <t>flower/flower081.png</t>
-  </si>
-  <si>
-    <t>face/face086.png</t>
-  </si>
-  <si>
-    <t>dog/dog077.png</t>
-  </si>
-  <si>
-    <t>car/car085.png</t>
-  </si>
-  <si>
-    <t>car/car078.png</t>
-  </si>
-  <si>
-    <t>face/face088.png</t>
-  </si>
-  <si>
-    <t>car/car082.png</t>
-  </si>
-  <si>
-    <t>face/face082.png</t>
-  </si>
-  <si>
-    <t>flower/flower071.png</t>
-  </si>
-  <si>
-    <t>car/car092.png</t>
-  </si>
-  <si>
-    <t>flower/flower068.png</t>
-  </si>
-  <si>
-    <t>dog/dog072.png</t>
-  </si>
-  <si>
-    <t>car/car095.png</t>
-  </si>
-  <si>
-    <t>dog/dog079.png</t>
-  </si>
-  <si>
-    <t>car/car083.png</t>
-  </si>
-  <si>
-    <t>car/car079.png</t>
-  </si>
-  <si>
-    <t>dog/dog086.png</t>
-  </si>
-  <si>
-    <t>car/car076.png</t>
-  </si>
-  <si>
-    <t>face/face090.png</t>
-  </si>
-  <si>
-    <t>flower/flower074.png</t>
-  </si>
-  <si>
-    <t>flower/flower083.png</t>
-  </si>
-  <si>
-    <t>dog/dog067.png</t>
-  </si>
-  <si>
-    <t>dog/dog094.png</t>
-  </si>
-  <si>
-    <t>face/face067.png</t>
-  </si>
-  <si>
-    <t>flower/flower100.png</t>
+    <t>flower/flower116.png</t>
+  </si>
+  <si>
+    <t>flower/flower069.png</t>
+  </si>
+  <si>
+    <t>dog/dog093.png</t>
+  </si>
+  <si>
+    <t>flower/flower095.png</t>
+  </si>
+  <si>
+    <t>car/car094.png</t>
+  </si>
+  <si>
+    <t>flower/flower121.png</t>
+  </si>
+  <si>
+    <t>car/car109.png</t>
+  </si>
+  <si>
+    <t>flower/flower089.png</t>
+  </si>
+  <si>
+    <t>car/car103.png</t>
+  </si>
+  <si>
+    <t>car/car101.png</t>
+  </si>
+  <si>
+    <t>flower/flower117.png</t>
+  </si>
+  <si>
+    <t>car/car086.png</t>
+  </si>
+  <si>
+    <t>face/face117.png</t>
+  </si>
+  <si>
+    <t>face/face089.png</t>
+  </si>
+  <si>
+    <t>flower/flower094.png</t>
+  </si>
+  <si>
+    <t>flower/flower113.png</t>
+  </si>
+  <si>
+    <t>dog/dog117.png</t>
+  </si>
+  <si>
+    <t>car/car105.png</t>
+  </si>
+  <si>
+    <t>dog/dog104.png</t>
+  </si>
+  <si>
+    <t>dog/dog107.png</t>
+  </si>
+  <si>
+    <t>car/car084.png</t>
+  </si>
+  <si>
+    <t>car/car065.png</t>
+  </si>
+  <si>
+    <t>face/face097.png</t>
+  </si>
+  <si>
+    <t>flower/flower110.png</t>
+  </si>
+  <si>
+    <t>car/car107.png</t>
+  </si>
+  <si>
+    <t>dog/dog121.png</t>
+  </si>
+  <si>
+    <t>dog/dog100.png</t>
+  </si>
+  <si>
+    <t>dog/dog120.png</t>
+  </si>
+  <si>
+    <t>face/face108.png</t>
+  </si>
+  <si>
+    <t>car/car108.png</t>
+  </si>
+  <si>
+    <t>face/face124.png</t>
   </si>
   <si>
     <t>car/car072.png</t>
   </si>
   <si>
-    <t>car/car081.png</t>
-  </si>
-  <si>
-    <t>car/car068.png</t>
-  </si>
-  <si>
-    <t>flower/flower088.png</t>
-  </si>
-  <si>
-    <t>flower/flower097.png</t>
-  </si>
-  <si>
-    <t>flower/flower098.png</t>
-  </si>
-  <si>
-    <t>car/car101.png</t>
-  </si>
-  <si>
-    <t>car/car086.png</t>
-  </si>
-  <si>
-    <t>flower/flower096.png</t>
-  </si>
-  <si>
-    <t>car/car084.png</t>
-  </si>
-  <si>
-    <t>dog/dog080.png</t>
-  </si>
-  <si>
-    <t>flower/flower070.png</t>
-  </si>
-  <si>
-    <t>face/face103.png</t>
-  </si>
-  <si>
-    <t>flower/flower094.png</t>
-  </si>
-  <si>
-    <t>car/car100.png</t>
-  </si>
-  <si>
-    <t>car/car075.png</t>
-  </si>
-  <si>
-    <t>flower/flower072.png</t>
-  </si>
-  <si>
-    <t>car/car093.png</t>
-  </si>
-  <si>
-    <t>dog/dog064.png</t>
-  </si>
-  <si>
-    <t>car/car090.png</t>
-  </si>
-  <si>
-    <t>dog/dog090.png</t>
-  </si>
-  <si>
-    <t>car/car071.png</t>
-  </si>
-  <si>
-    <t>car/car099.png</t>
-  </si>
-  <si>
-    <t>dog/dog093.png</t>
-  </si>
-  <si>
-    <t>car/car074.png</t>
-  </si>
-  <si>
-    <t>flower/flower107.png</t>
-  </si>
-  <si>
-    <t>car/car087.png</t>
+    <t>dog/dog122.png</t>
   </si>
   <si>
     <t>dog/dog070.png</t>
   </si>
   <si>
-    <t>face/face095.png</t>
-  </si>
-  <si>
-    <t>face/face091.png</t>
-  </si>
-  <si>
-    <t>flower/flower106.png</t>
-  </si>
-  <si>
-    <t>face/face107.png</t>
-  </si>
-  <si>
-    <t>car/car102.png</t>
-  </si>
-  <si>
-    <t>dog/dog081.png</t>
-  </si>
-  <si>
-    <t>face/face100.png</t>
-  </si>
-  <si>
-    <t>dog/dog109.png</t>
-  </si>
-  <si>
-    <t>face/face075.png</t>
-  </si>
-  <si>
-    <t>face/face081.png</t>
-  </si>
-  <si>
-    <t>flower/flower075.png</t>
-  </si>
-  <si>
-    <t>dog/dog085.png</t>
-  </si>
-  <si>
-    <t>face/face093.png</t>
-  </si>
-  <si>
-    <t>dog/dog095.png</t>
-  </si>
-  <si>
-    <t>face/face105.png</t>
-  </si>
-  <si>
-    <t>face/face102.png</t>
-  </si>
-  <si>
-    <t>car/car116.png</t>
-  </si>
-  <si>
-    <t>dog/dog098.png</t>
-  </si>
-  <si>
-    <t>flower/flower089.png</t>
-  </si>
-  <si>
-    <t>flower/flower091.png</t>
-  </si>
-  <si>
-    <t>face/face098.png</t>
-  </si>
-  <si>
-    <t>dog/dog082.png</t>
-  </si>
-  <si>
-    <t>face/face113.png</t>
-  </si>
-  <si>
-    <t>dog/dog113.png</t>
-  </si>
-  <si>
-    <t>face/face089.png</t>
-  </si>
-  <si>
-    <t>dog/dog087.png</t>
-  </si>
-  <si>
-    <t>car/car121.png</t>
-  </si>
-  <si>
-    <t>dog/dog114.png</t>
-  </si>
-  <si>
-    <t>dog/dog076.png</t>
-  </si>
-  <si>
-    <t>face/face112.png</t>
-  </si>
-  <si>
-    <t>flower/flower085.png</t>
-  </si>
-  <si>
-    <t>car/car118.png</t>
-  </si>
-  <si>
-    <t>dog/dog116.png</t>
-  </si>
-  <si>
-    <t>flower/flower065.png</t>
-  </si>
-  <si>
-    <t>face/face066.png</t>
-  </si>
-  <si>
-    <t>dog/dog092.png</t>
-  </si>
-  <si>
-    <t>flower/flower111.png</t>
-  </si>
-  <si>
-    <t>face/face114.png</t>
-  </si>
-  <si>
-    <t>dog/dog108.png</t>
-  </si>
-  <si>
-    <t>dog/dog078.png</t>
-  </si>
-  <si>
-    <t>flower/flower116.png</t>
-  </si>
-  <si>
-    <t>flower/flower073.png</t>
-  </si>
-  <si>
-    <t>car/car105.png</t>
-  </si>
-  <si>
-    <t>flower/flower069.png</t>
-  </si>
-  <si>
-    <t>flower/flower103.png</t>
-  </si>
-  <si>
-    <t>car/car066.png</t>
-  </si>
-  <si>
-    <t>dog/dog097.png</t>
-  </si>
-  <si>
-    <t>dog/dog068.png</t>
-  </si>
-  <si>
-    <t>dog/dog091.png</t>
-  </si>
-  <si>
-    <t>face/face111.png</t>
-  </si>
-  <si>
-    <t>face/face099.png</t>
-  </si>
-  <si>
-    <t>face/face120.png</t>
-  </si>
-  <si>
-    <t>flower/flower064.png</t>
-  </si>
-  <si>
-    <t>face/face074.png</t>
-  </si>
-  <si>
-    <t>car/car080.png</t>
-  </si>
-  <si>
-    <t>face/face118.png</t>
-  </si>
-  <si>
-    <t>flower/flower118.png</t>
-  </si>
-  <si>
-    <t>flower/flower123.png</t>
-  </si>
-  <si>
-    <t>face/face092.png</t>
-  </si>
-  <si>
-    <t>flower/flower112.png</t>
-  </si>
-  <si>
-    <t>flower/flower080.png</t>
-  </si>
-  <si>
-    <t>car/car112.png</t>
-  </si>
-  <si>
-    <t>face/face121.png</t>
-  </si>
-  <si>
-    <t>flower/flower101.png</t>
-  </si>
-  <si>
-    <t>dog/dog099.png</t>
-  </si>
-  <si>
-    <t>dog/dog110.png</t>
-  </si>
-  <si>
-    <t>trösten</t>
+    <t>quellen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>prüfen</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>piepen</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>währen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>nehmen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>legen</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>narren</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>frischen</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>langen</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>streifen</t>
+  </si>
+  <si>
+    <t>raten</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>wählen</t>
+  </si>
+  <si>
+    <t>wehen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>sieben</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>hacken</t>
+  </si>
+  <si>
+    <t>stoppen</t>
+  </si>
+  <si>
+    <t>fliegen</t>
+  </si>
+  <si>
+    <t>fliehen</t>
+  </si>
+  <si>
+    <t>angeln</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>atmen</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>kranken</t>
+  </si>
+  <si>
+    <t>haken</t>
+  </si>
+  <si>
+    <t>sondern</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>kriegen</t>
+  </si>
+  <si>
+    <t>tagen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
+    <t>rechnen</t>
+  </si>
+  <si>
+    <t>lernen</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>schätzen</t>
+  </si>
+  <si>
+    <t>mieten</t>
+  </si>
+  <si>
+    <t>laufen</t>
   </si>
   <si>
     <t>drohen</t>
   </si>
   <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>räumen</t>
+    <t>duschen</t>
+  </si>
+  <si>
+    <t>wecken</t>
+  </si>
+  <si>
+    <t>kennen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>strahlen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>grenzen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>proben</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>klappen</t>
+  </si>
+  <si>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>krachen</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>schenken</t>
   </si>
   <si>
     <t>meinen</t>
   </si>
   <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>folgen</t>
-  </si>
-  <si>
-    <t>stehen</t>
-  </si>
-  <si>
-    <t>bremsen</t>
-  </si>
-  <si>
-    <t>nähen</t>
-  </si>
-  <si>
-    <t>regen</t>
-  </si>
-  <si>
-    <t>malen</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>melden</t>
-  </si>
-  <si>
-    <t>sondern</t>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>hassen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>rücken</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>leeren</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>füllen</t>
+  </si>
+  <si>
+    <t>reisen</t>
+  </si>
+  <si>
+    <t>nullen</t>
+  </si>
+  <si>
+    <t>trotzen</t>
+  </si>
+  <si>
+    <t>lächeln</t>
   </si>
   <si>
     <t>saufen</t>
   </si>
   <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>plaudern</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>putzen</t>
-  </si>
-  <si>
-    <t>boxen</t>
-  </si>
-  <si>
-    <t>siegen</t>
-  </si>
-  <si>
-    <t>bomben</t>
-  </si>
-  <si>
-    <t>sprengen</t>
-  </si>
-  <si>
-    <t>bluten</t>
-  </si>
-  <si>
-    <t>läuten</t>
-  </si>
-  <si>
-    <t>sorgen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>sagen</t>
-  </si>
-  <si>
-    <t>kürzen</t>
-  </si>
-  <si>
-    <t>baden</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>treffen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>träumen</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>filmen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>zünden</t>
-  </si>
-  <si>
-    <t>garen</t>
-  </si>
-  <si>
-    <t>osten</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>sinken</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>wollen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>heulen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>schwören</t>
-  </si>
-  <si>
-    <t>spuren</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>drucken</t>
-  </si>
-  <si>
-    <t>doppeln</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>feiern</t>
-  </si>
-  <si>
-    <t>hexen</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
     <t>dauern</t>
   </si>
   <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>wetten</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>lesen</t>
-  </si>
-  <si>
-    <t>lösen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>segnen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>meistern</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>pflanzen</t>
-  </si>
-  <si>
-    <t>ahnen</t>
-  </si>
-  <si>
-    <t>widmen</t>
-  </si>
-  <si>
-    <t>kugeln</t>
-  </si>
-  <si>
-    <t>lauten</t>
-  </si>
-  <si>
-    <t>warnen</t>
-  </si>
-  <si>
-    <t>irren</t>
-  </si>
-  <si>
-    <t>nähern</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>sperren</t>
-  </si>
-  <si>
-    <t>rauben</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>schlampen</t>
-  </si>
-  <si>
-    <t>klagen</t>
-  </si>
-  <si>
-    <t>gnaden</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>äußern</t>
-  </si>
-  <si>
-    <t>wiegen</t>
+    <t>face</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>dog</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>flower</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1230,7 @@
         <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1244,7 +1244,7 @@
         <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1258,7 +1258,7 @@
         <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1300,7 +1300,7 @@
         <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1342,7 +1342,7 @@
         <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1356,7 +1356,7 @@
         <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1370,7 +1370,7 @@
         <v>144</v>
       </c>
       <c r="D15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1384,7 +1384,7 @@
         <v>145</v>
       </c>
       <c r="D16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1398,7 +1398,7 @@
         <v>146</v>
       </c>
       <c r="D17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1440,7 +1440,7 @@
         <v>149</v>
       </c>
       <c r="D20" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1454,7 +1454,7 @@
         <v>150</v>
       </c>
       <c r="D21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1468,7 +1468,7 @@
         <v>151</v>
       </c>
       <c r="D22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1482,7 +1482,7 @@
         <v>152</v>
       </c>
       <c r="D23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1496,7 +1496,7 @@
         <v>153</v>
       </c>
       <c r="D24" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1510,7 +1510,7 @@
         <v>154</v>
       </c>
       <c r="D25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1524,7 +1524,7 @@
         <v>155</v>
       </c>
       <c r="D26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1538,7 +1538,7 @@
         <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1566,7 +1566,7 @@
         <v>158</v>
       </c>
       <c r="D29" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1580,7 +1580,7 @@
         <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1594,7 +1594,7 @@
         <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1608,7 +1608,7 @@
         <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1622,7 +1622,7 @@
         <v>162</v>
       </c>
       <c r="D33" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>163</v>
       </c>
       <c r="D34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1650,7 +1650,7 @@
         <v>164</v>
       </c>
       <c r="D35" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1664,7 +1664,7 @@
         <v>165</v>
       </c>
       <c r="D36" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1720,7 +1720,7 @@
         <v>169</v>
       </c>
       <c r="D40" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1734,7 +1734,7 @@
         <v>170</v>
       </c>
       <c r="D41" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1748,7 +1748,7 @@
         <v>171</v>
       </c>
       <c r="D42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1790,7 +1790,7 @@
         <v>174</v>
       </c>
       <c r="D45" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1818,7 +1818,7 @@
         <v>176</v>
       </c>
       <c r="D47" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1832,7 +1832,7 @@
         <v>177</v>
       </c>
       <c r="D48" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1846,7 +1846,7 @@
         <v>178</v>
       </c>
       <c r="D49" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1860,7 +1860,7 @@
         <v>179</v>
       </c>
       <c r="D50" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1874,7 +1874,7 @@
         <v>180</v>
       </c>
       <c r="D51" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1902,7 +1902,7 @@
         <v>182</v>
       </c>
       <c r="D53" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1916,7 +1916,7 @@
         <v>183</v>
       </c>
       <c r="D54" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1930,7 +1930,7 @@
         <v>184</v>
       </c>
       <c r="D55" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1944,7 +1944,7 @@
         <v>185</v>
       </c>
       <c r="D56" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1958,7 +1958,7 @@
         <v>186</v>
       </c>
       <c r="D57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1972,7 +1972,7 @@
         <v>187</v>
       </c>
       <c r="D58" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1986,7 +1986,7 @@
         <v>188</v>
       </c>
       <c r="D59" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2000,7 +2000,7 @@
         <v>189</v>
       </c>
       <c r="D60" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2014,7 +2014,7 @@
         <v>190</v>
       </c>
       <c r="D61" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2028,7 +2028,7 @@
         <v>191</v>
       </c>
       <c r="D62" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>192</v>
       </c>
       <c r="D63" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2056,7 +2056,7 @@
         <v>193</v>
       </c>
       <c r="D64" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2070,7 +2070,7 @@
         <v>194</v>
       </c>
       <c r="D65" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2084,7 +2084,7 @@
         <v>195</v>
       </c>
       <c r="D66" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2098,7 +2098,7 @@
         <v>196</v>
       </c>
       <c r="D67" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2126,7 +2126,7 @@
         <v>198</v>
       </c>
       <c r="D69" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2140,7 +2140,7 @@
         <v>199</v>
       </c>
       <c r="D70" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2154,7 +2154,7 @@
         <v>200</v>
       </c>
       <c r="D71" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2168,7 +2168,7 @@
         <v>201</v>
       </c>
       <c r="D72" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2196,7 +2196,7 @@
         <v>203</v>
       </c>
       <c r="D74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2224,7 +2224,7 @@
         <v>205</v>
       </c>
       <c r="D76" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2238,7 +2238,7 @@
         <v>206</v>
       </c>
       <c r="D77" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2252,7 +2252,7 @@
         <v>207</v>
       </c>
       <c r="D78" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2266,7 +2266,7 @@
         <v>208</v>
       </c>
       <c r="D79" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2280,7 +2280,7 @@
         <v>209</v>
       </c>
       <c r="D80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2308,7 +2308,7 @@
         <v>211</v>
       </c>
       <c r="D82" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2322,7 +2322,7 @@
         <v>212</v>
       </c>
       <c r="D83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2336,7 +2336,7 @@
         <v>213</v>
       </c>
       <c r="D84" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2350,7 +2350,7 @@
         <v>214</v>
       </c>
       <c r="D85" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2364,7 +2364,7 @@
         <v>215</v>
       </c>
       <c r="D86" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2378,7 +2378,7 @@
         <v>216</v>
       </c>
       <c r="D87" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2392,7 +2392,7 @@
         <v>217</v>
       </c>
       <c r="D88" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2406,7 +2406,7 @@
         <v>218</v>
       </c>
       <c r="D89" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2420,7 +2420,7 @@
         <v>219</v>
       </c>
       <c r="D90" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2434,7 +2434,7 @@
         <v>220</v>
       </c>
       <c r="D91" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2462,7 +2462,7 @@
         <v>222</v>
       </c>
       <c r="D93" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2476,7 +2476,7 @@
         <v>223</v>
       </c>
       <c r="D94" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2490,7 +2490,7 @@
         <v>224</v>
       </c>
       <c r="D95" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2504,7 +2504,7 @@
         <v>225</v>
       </c>
       <c r="D96" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2518,7 +2518,7 @@
         <v>226</v>
       </c>
       <c r="D97" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2532,7 +2532,7 @@
         <v>227</v>
       </c>
       <c r="D98" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2546,7 +2546,7 @@
         <v>228</v>
       </c>
       <c r="D99" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2560,7 +2560,7 @@
         <v>229</v>
       </c>
       <c r="D100" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2574,7 +2574,7 @@
         <v>230</v>
       </c>
       <c r="D101" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2588,7 +2588,7 @@
         <v>231</v>
       </c>
       <c r="D102" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2602,7 +2602,7 @@
         <v>232</v>
       </c>
       <c r="D103" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2616,7 +2616,7 @@
         <v>233</v>
       </c>
       <c r="D104" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>234</v>
       </c>
       <c r="D105" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2658,7 +2658,7 @@
         <v>236</v>
       </c>
       <c r="D107" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2672,7 +2672,7 @@
         <v>237</v>
       </c>
       <c r="D108" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2686,7 +2686,7 @@
         <v>238</v>
       </c>
       <c r="D109" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2700,7 +2700,7 @@
         <v>239</v>
       </c>
       <c r="D110" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2714,7 +2714,7 @@
         <v>240</v>
       </c>
       <c r="D111" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2728,7 +2728,7 @@
         <v>241</v>
       </c>
       <c r="D112" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2756,7 +2756,7 @@
         <v>243</v>
       </c>
       <c r="D114" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2770,7 +2770,7 @@
         <v>244</v>
       </c>
       <c r="D115" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2784,7 +2784,7 @@
         <v>245</v>
       </c>
       <c r="D116" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2812,7 +2812,7 @@
         <v>247</v>
       </c>
       <c r="D118" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2826,7 +2826,7 @@
         <v>248</v>
       </c>
       <c r="D119" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2840,7 +2840,7 @@
         <v>249</v>
       </c>
       <c r="D120" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2868,7 +2868,7 @@
         <v>251</v>
       </c>
       <c r="D122" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2896,7 +2896,7 @@
         <v>253</v>
       </c>
       <c r="D124" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2910,7 +2910,7 @@
         <v>254</v>
       </c>
       <c r="D125" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2924,7 +2924,7 @@
         <v>255</v>
       </c>
       <c r="D126" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2938,7 +2938,7 @@
         <v>256</v>
       </c>
       <c r="D127" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2952,7 +2952,7 @@
         <v>257</v>
       </c>
       <c r="D128" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2966,7 +2966,7 @@
         <v>258</v>
       </c>
       <c r="D129" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/04_pairings.xlsx
+++ b/sequences/04_pairings.xlsx
@@ -25,781 +25,781 @@
     <t>category</t>
   </si>
   <si>
-    <t>face/face074.png</t>
-  </si>
-  <si>
-    <t>flower/flower083.png</t>
-  </si>
-  <si>
-    <t>car/car074.png</t>
-  </si>
-  <si>
-    <t>flower/flower075.png</t>
-  </si>
-  <si>
-    <t>dog/dog076.png</t>
-  </si>
-  <si>
-    <t>car/car066.png</t>
-  </si>
-  <si>
-    <t>face/face095.png</t>
-  </si>
-  <si>
-    <t>dog/dog088.png</t>
-  </si>
-  <si>
-    <t>dog/dog089.png</t>
-  </si>
-  <si>
-    <t>dog/dog073.png</t>
-  </si>
-  <si>
-    <t>car/car071.png</t>
-  </si>
-  <si>
-    <t>flower/flower077.png</t>
-  </si>
-  <si>
-    <t>dog/dog065.png</t>
-  </si>
-  <si>
-    <t>dog/dog071.png</t>
-  </si>
-  <si>
-    <t>flower/flower068.png</t>
-  </si>
-  <si>
-    <t>face/face071.png</t>
-  </si>
-  <si>
-    <t>car/car089.png</t>
-  </si>
-  <si>
-    <t>dog/dog099.png</t>
-  </si>
-  <si>
-    <t>car/car067.png</t>
-  </si>
-  <si>
-    <t>face/face067.png</t>
-  </si>
-  <si>
-    <t>flower/flower086.png</t>
-  </si>
-  <si>
-    <t>car/car070.png</t>
-  </si>
-  <si>
-    <t>car/car097.png</t>
-  </si>
-  <si>
-    <t>face/face070.png</t>
-  </si>
-  <si>
-    <t>car/car096.png</t>
-  </si>
-  <si>
-    <t>dog/dog098.png</t>
-  </si>
-  <si>
-    <t>flower/flower080.png</t>
-  </si>
-  <si>
-    <t>dog/dog103.png</t>
-  </si>
-  <si>
-    <t>face/face092.png</t>
-  </si>
-  <si>
-    <t>face/face101.png</t>
-  </si>
-  <si>
-    <t>flower/flower093.png</t>
-  </si>
-  <si>
-    <t>car/car085.png</t>
-  </si>
-  <si>
-    <t>flower/flower099.png</t>
-  </si>
-  <si>
-    <t>face/face094.png</t>
-  </si>
-  <si>
-    <t>car/car099.png</t>
-  </si>
-  <si>
-    <t>flower/flower076.png</t>
-  </si>
-  <si>
-    <t>flower/flower087.png</t>
-  </si>
-  <si>
-    <t>dog/dog072.png</t>
-  </si>
-  <si>
-    <t>face/face076.png</t>
-  </si>
-  <si>
-    <t>face/face103.png</t>
-  </si>
-  <si>
-    <t>face/face104.png</t>
-  </si>
-  <si>
-    <t>flower/flower067.png</t>
-  </si>
-  <si>
-    <t>dog/dog079.png</t>
-  </si>
-  <si>
-    <t>car/car104.png</t>
-  </si>
-  <si>
-    <t>face/face090.png</t>
-  </si>
-  <si>
-    <t>flower/flower105.png</t>
-  </si>
-  <si>
-    <t>face/face100.png</t>
-  </si>
-  <si>
-    <t>face/face080.png</t>
-  </si>
-  <si>
-    <t>dog/dog078.png</t>
-  </si>
-  <si>
-    <t>car/car075.png</t>
-  </si>
-  <si>
-    <t>dog/dog067.png</t>
-  </si>
-  <si>
-    <t>dog/dog092.png</t>
-  </si>
-  <si>
-    <t>dog/dog108.png</t>
-  </si>
-  <si>
-    <t>face/face066.png</t>
-  </si>
-  <si>
-    <t>flower/flower088.png</t>
-  </si>
-  <si>
-    <t>face/face096.png</t>
-  </si>
-  <si>
-    <t>car/car090.png</t>
-  </si>
-  <si>
-    <t>flower/flower102.png</t>
-  </si>
-  <si>
-    <t>dog/dog077.png</t>
-  </si>
-  <si>
-    <t>face/face068.png</t>
-  </si>
-  <si>
-    <t>car/car076.png</t>
-  </si>
-  <si>
-    <t>dog/dog109.png</t>
-  </si>
-  <si>
-    <t>face/face112.png</t>
-  </si>
-  <si>
-    <t>flower/flower104.png</t>
-  </si>
-  <si>
-    <t>car/car082.png</t>
-  </si>
-  <si>
-    <t>face/face087.png</t>
-  </si>
-  <si>
-    <t>flower/flower085.png</t>
-  </si>
-  <si>
-    <t>dog/dog069.png</t>
-  </si>
-  <si>
-    <t>flower/flower111.png</t>
-  </si>
-  <si>
-    <t>dog/dog101.png</t>
-  </si>
-  <si>
-    <t>face/face082.png</t>
-  </si>
-  <si>
-    <t>car/car087.png</t>
-  </si>
-  <si>
-    <t>car/car093.png</t>
-  </si>
-  <si>
-    <t>face/face109.png</t>
-  </si>
-  <si>
-    <t>dog/dog075.png</t>
-  </si>
-  <si>
-    <t>flower/flower096.png</t>
-  </si>
-  <si>
-    <t>face/face088.png</t>
-  </si>
-  <si>
-    <t>flower/flower072.png</t>
-  </si>
-  <si>
-    <t>face/face102.png</t>
-  </si>
-  <si>
-    <t>face/face105.png</t>
-  </si>
-  <si>
-    <t>flower/flower078.png</t>
-  </si>
-  <si>
-    <t>car/car106.png</t>
-  </si>
-  <si>
-    <t>flower/flower073.png</t>
-  </si>
-  <si>
-    <t>dog/dog095.png</t>
-  </si>
-  <si>
-    <t>face/face069.png</t>
-  </si>
-  <si>
-    <t>flower/flower084.png</t>
-  </si>
-  <si>
-    <t>face/face118.png</t>
-  </si>
-  <si>
-    <t>dog/dog091.png</t>
-  </si>
-  <si>
-    <t>car/car083.png</t>
-  </si>
-  <si>
-    <t>flower/flower071.png</t>
-  </si>
-  <si>
-    <t>face/face064.png</t>
-  </si>
-  <si>
-    <t>dog/dog112.png</t>
-  </si>
-  <si>
-    <t>car/car073.png</t>
-  </si>
-  <si>
-    <t>car/car069.png</t>
-  </si>
-  <si>
-    <t>flower/flower116.png</t>
-  </si>
-  <si>
-    <t>flower/flower069.png</t>
-  </si>
-  <si>
-    <t>dog/dog093.png</t>
-  </si>
-  <si>
-    <t>flower/flower095.png</t>
-  </si>
-  <si>
-    <t>car/car094.png</t>
-  </si>
-  <si>
-    <t>flower/flower121.png</t>
-  </si>
-  <si>
-    <t>car/car109.png</t>
-  </si>
-  <si>
-    <t>flower/flower089.png</t>
-  </si>
-  <si>
-    <t>car/car103.png</t>
-  </si>
-  <si>
-    <t>car/car101.png</t>
-  </si>
-  <si>
-    <t>flower/flower117.png</t>
-  </si>
-  <si>
-    <t>car/car086.png</t>
-  </si>
-  <si>
-    <t>face/face117.png</t>
-  </si>
-  <si>
-    <t>face/face089.png</t>
-  </si>
-  <si>
-    <t>flower/flower094.png</t>
-  </si>
-  <si>
-    <t>flower/flower113.png</t>
-  </si>
-  <si>
-    <t>dog/dog117.png</t>
-  </si>
-  <si>
-    <t>car/car105.png</t>
-  </si>
-  <si>
-    <t>dog/dog104.png</t>
-  </si>
-  <si>
-    <t>dog/dog107.png</t>
-  </si>
-  <si>
-    <t>car/car084.png</t>
-  </si>
-  <si>
-    <t>car/car065.png</t>
-  </si>
-  <si>
-    <t>face/face097.png</t>
-  </si>
-  <si>
-    <t>flower/flower110.png</t>
-  </si>
-  <si>
-    <t>car/car107.png</t>
-  </si>
-  <si>
-    <t>dog/dog121.png</t>
-  </si>
-  <si>
-    <t>dog/dog100.png</t>
-  </si>
-  <si>
-    <t>dog/dog120.png</t>
-  </si>
-  <si>
-    <t>face/face108.png</t>
-  </si>
-  <si>
-    <t>car/car108.png</t>
-  </si>
-  <si>
-    <t>face/face124.png</t>
-  </si>
-  <si>
-    <t>car/car072.png</t>
-  </si>
-  <si>
-    <t>dog/dog122.png</t>
-  </si>
-  <si>
-    <t>dog/dog070.png</t>
+    <t>flower/flower019.jpg</t>
+  </si>
+  <si>
+    <t>house/house026.jpg</t>
+  </si>
+  <si>
+    <t>face/face006.jpg</t>
+  </si>
+  <si>
+    <t>house/house010.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower008.jpg</t>
+  </si>
+  <si>
+    <t>face/face029.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog013.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog027.jpg</t>
+  </si>
+  <si>
+    <t>house/house027.jpg</t>
+  </si>
+  <si>
+    <t>face/face025.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog024.jpg</t>
+  </si>
+  <si>
+    <t>face/face021.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog017.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog002.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower016.jpg</t>
+  </si>
+  <si>
+    <t>house/house005.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower013.jpg</t>
+  </si>
+  <si>
+    <t>face/face004.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower031.jpg</t>
+  </si>
+  <si>
+    <t>house/house022.jpg</t>
+  </si>
+  <si>
+    <t>house/house029.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog025.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog018.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower012.jpg</t>
+  </si>
+  <si>
+    <t>house/house020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog028.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>house/house024.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog001.jpg</t>
+  </si>
+  <si>
+    <t>house/house012.jpg</t>
+  </si>
+  <si>
+    <t>face/face013.jpg</t>
+  </si>
+  <si>
+    <t>house/house025.jpg</t>
+  </si>
+  <si>
+    <t>house/house023.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
+  </si>
+  <si>
+    <t>house/house014.jpg</t>
+  </si>
+  <si>
+    <t>face/face015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog003.jpg</t>
+  </si>
+  <si>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>face/face010.jpg</t>
+  </si>
+  <si>
+    <t>house/house021.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower000.jpg</t>
+  </si>
+  <si>
+    <t>house/house016.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog010.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower005.jpg</t>
+  </si>
+  <si>
+    <t>face/face019.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog011.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower011.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower025.jpg</t>
+  </si>
+  <si>
+    <t>house/house006.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog019.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower030.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog008.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower015.jpg</t>
+  </si>
+  <si>
+    <t>face/face028.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower003.jpg</t>
+  </si>
+  <si>
+    <t>house/house003.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog005.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog022.jpg</t>
+  </si>
+  <si>
+    <t>house/house001.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower006.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower018.jpg</t>
+  </si>
+  <si>
+    <t>face/face022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower023.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog014.jpg</t>
+  </si>
+  <si>
+    <t>face/face008.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower009.jpg</t>
+  </si>
+  <si>
+    <t>house/house007.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog012.jpg</t>
+  </si>
+  <si>
+    <t>house/house019.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog004.jpg</t>
+  </si>
+  <si>
+    <t>face/face031.jpg</t>
+  </si>
+  <si>
+    <t>house/house017.jpg</t>
+  </si>
+  <si>
+    <t>face/face030.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower014.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower022.jpg</t>
+  </si>
+  <si>
+    <t>face/face012.jpg</t>
+  </si>
+  <si>
+    <t>house/house013.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower024.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog029.jpg</t>
+  </si>
+  <si>
+    <t>house/house018.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower029.jpg</t>
+  </si>
+  <si>
+    <t>face/face024.jpg</t>
+  </si>
+  <si>
+    <t>face/face011.jpg</t>
+  </si>
+  <si>
+    <t>house/house009.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog000.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower001.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog007.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower028.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog009.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower026.jpg</t>
+  </si>
+  <si>
+    <t>face/face007.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog006.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower021.jpg</t>
+  </si>
+  <si>
+    <t>face/face003.jpg</t>
+  </si>
+  <si>
+    <t>face/face009.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower020.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower027.jpg</t>
+  </si>
+  <si>
+    <t>house/house011.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower010.jpg</t>
+  </si>
+  <si>
+    <t>house/house004.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog030.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower004.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog016.jpg</t>
+  </si>
+  <si>
+    <t>house/house031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower017.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog021.jpg</t>
+  </si>
+  <si>
+    <t>house/house015.jpg</t>
+  </si>
+  <si>
+    <t>face/face017.jpg</t>
+  </si>
+  <si>
+    <t>house/house002.jpg</t>
+  </si>
+  <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>house/house008.jpg</t>
+  </si>
+  <si>
+    <t>face/face026.jpg</t>
+  </si>
+  <si>
+    <t>face/face016.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog015.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower007.jpg</t>
+  </si>
+  <si>
+    <t>face/face000.jpg</t>
+  </si>
+  <si>
+    <t>house/house028.jpg</t>
+  </si>
+  <si>
+    <t>house/house000.jpg</t>
+  </si>
+  <si>
+    <t>house/house030.jpg</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>hacken</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>leeren</t>
+  </si>
+  <si>
+    <t>hassen</t>
+  </si>
+  <si>
+    <t>füllen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>langen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>kranken</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>frischen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>haken</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>wecken</t>
+  </si>
+  <si>
+    <t>nehmen</t>
+  </si>
+  <si>
+    <t>raten</t>
+  </si>
+  <si>
+    <t>duschen</t>
+  </si>
+  <si>
+    <t>sieben</t>
+  </si>
+  <si>
+    <t>laufen</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>strahlen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>krachen</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>nullen</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>sondern</t>
+  </si>
+  <si>
+    <t>kriegen</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>angeln</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>wehen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>wählen</t>
+  </si>
+  <si>
+    <t>stoppen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>narren</t>
+  </si>
+  <si>
+    <t>piepen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>währen</t>
+  </si>
+  <si>
+    <t>mieten</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>kennen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>schätzen</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>reisen</t>
+  </si>
+  <si>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>atmen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>klappen</t>
+  </si>
+  <si>
+    <t>proben</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>fliehen</t>
+  </si>
+  <si>
+    <t>fliegen</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>grenzen</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>rechnen</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>streifen</t>
   </si>
   <si>
     <t>quellen</t>
   </si>
   <si>
-    <t>biegen</t>
+    <t>rücken</t>
+  </si>
+  <si>
+    <t>tagen</t>
+  </si>
+  <si>
+    <t>trotzen</t>
+  </si>
+  <si>
+    <t>legen</t>
   </si>
   <si>
     <t>prüfen</t>
   </si>
   <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
     <t>lernen</t>
   </si>
   <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>dauern</t>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>house</t>
   </si>
   <si>
     <t>face</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>car</t>
   </si>
   <si>
     <t>dog</t>
@@ -1244,7 +1244,7 @@
         <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1272,7 +1272,7 @@
         <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1300,7 +1300,7 @@
         <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1314,7 +1314,7 @@
         <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1328,7 +1328,7 @@
         <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1342,7 +1342,7 @@
         <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1384,7 +1384,7 @@
         <v>145</v>
       </c>
       <c r="D16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1398,7 +1398,7 @@
         <v>146</v>
       </c>
       <c r="D17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1412,7 +1412,7 @@
         <v>147</v>
       </c>
       <c r="D18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>148</v>
       </c>
       <c r="D19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1440,7 +1440,7 @@
         <v>149</v>
       </c>
       <c r="D20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1454,7 +1454,7 @@
         <v>150</v>
       </c>
       <c r="D21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1482,7 +1482,7 @@
         <v>152</v>
       </c>
       <c r="D23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1496,7 +1496,7 @@
         <v>153</v>
       </c>
       <c r="D24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1524,7 +1524,7 @@
         <v>155</v>
       </c>
       <c r="D26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1552,7 +1552,7 @@
         <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1566,7 +1566,7 @@
         <v>158</v>
       </c>
       <c r="D29" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1580,7 +1580,7 @@
         <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1594,7 +1594,7 @@
         <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1608,7 +1608,7 @@
         <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1622,7 +1622,7 @@
         <v>162</v>
       </c>
       <c r="D33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1650,7 +1650,7 @@
         <v>164</v>
       </c>
       <c r="D35" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1664,7 +1664,7 @@
         <v>165</v>
       </c>
       <c r="D36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1678,7 +1678,7 @@
         <v>166</v>
       </c>
       <c r="D37" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1692,7 +1692,7 @@
         <v>167</v>
       </c>
       <c r="D38" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1706,7 +1706,7 @@
         <v>168</v>
       </c>
       <c r="D39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1720,7 +1720,7 @@
         <v>169</v>
       </c>
       <c r="D40" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1734,7 +1734,7 @@
         <v>170</v>
       </c>
       <c r="D41" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1790,7 +1790,7 @@
         <v>174</v>
       </c>
       <c r="D45" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1804,7 +1804,7 @@
         <v>175</v>
       </c>
       <c r="D46" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1818,7 +1818,7 @@
         <v>176</v>
       </c>
       <c r="D47" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1846,7 +1846,7 @@
         <v>178</v>
       </c>
       <c r="D49" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1860,7 +1860,7 @@
         <v>179</v>
       </c>
       <c r="D50" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1874,7 +1874,7 @@
         <v>180</v>
       </c>
       <c r="D51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1902,7 +1902,7 @@
         <v>182</v>
       </c>
       <c r="D53" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1944,7 +1944,7 @@
         <v>185</v>
       </c>
       <c r="D56" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1972,7 +1972,7 @@
         <v>187</v>
       </c>
       <c r="D58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1986,7 +1986,7 @@
         <v>188</v>
       </c>
       <c r="D59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2014,7 +2014,7 @@
         <v>190</v>
       </c>
       <c r="D61" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2028,7 +2028,7 @@
         <v>191</v>
       </c>
       <c r="D62" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>192</v>
       </c>
       <c r="D63" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2070,7 +2070,7 @@
         <v>194</v>
       </c>
       <c r="D65" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2112,7 +2112,7 @@
         <v>197</v>
       </c>
       <c r="D68" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2126,7 +2126,7 @@
         <v>198</v>
       </c>
       <c r="D69" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2140,7 +2140,7 @@
         <v>199</v>
       </c>
       <c r="D70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2154,7 +2154,7 @@
         <v>200</v>
       </c>
       <c r="D71" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2168,7 +2168,7 @@
         <v>201</v>
       </c>
       <c r="D72" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2182,7 +2182,7 @@
         <v>202</v>
       </c>
       <c r="D73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2196,7 +2196,7 @@
         <v>203</v>
       </c>
       <c r="D74" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2210,7 +2210,7 @@
         <v>204</v>
       </c>
       <c r="D75" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2224,7 +2224,7 @@
         <v>205</v>
       </c>
       <c r="D76" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2238,7 +2238,7 @@
         <v>206</v>
       </c>
       <c r="D77" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2252,7 +2252,7 @@
         <v>207</v>
       </c>
       <c r="D78" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2266,7 +2266,7 @@
         <v>208</v>
       </c>
       <c r="D79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2294,7 +2294,7 @@
         <v>210</v>
       </c>
       <c r="D81" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2322,7 +2322,7 @@
         <v>212</v>
       </c>
       <c r="D83" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2336,7 +2336,7 @@
         <v>213</v>
       </c>
       <c r="D84" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2364,7 +2364,7 @@
         <v>215</v>
       </c>
       <c r="D86" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2406,7 +2406,7 @@
         <v>218</v>
       </c>
       <c r="D89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2448,7 +2448,7 @@
         <v>221</v>
       </c>
       <c r="D92" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2462,7 +2462,7 @@
         <v>222</v>
       </c>
       <c r="D93" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2476,7 +2476,7 @@
         <v>223</v>
       </c>
       <c r="D94" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2490,7 +2490,7 @@
         <v>224</v>
       </c>
       <c r="D95" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2504,7 +2504,7 @@
         <v>225</v>
       </c>
       <c r="D96" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2518,7 +2518,7 @@
         <v>226</v>
       </c>
       <c r="D97" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2532,7 +2532,7 @@
         <v>227</v>
       </c>
       <c r="D98" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2546,7 +2546,7 @@
         <v>228</v>
       </c>
       <c r="D99" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2560,7 +2560,7 @@
         <v>229</v>
       </c>
       <c r="D100" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2574,7 +2574,7 @@
         <v>230</v>
       </c>
       <c r="D101" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2602,7 +2602,7 @@
         <v>232</v>
       </c>
       <c r="D103" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2616,7 +2616,7 @@
         <v>233</v>
       </c>
       <c r="D104" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>234</v>
       </c>
       <c r="D105" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2658,7 +2658,7 @@
         <v>236</v>
       </c>
       <c r="D107" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2672,7 +2672,7 @@
         <v>237</v>
       </c>
       <c r="D108" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2686,7 +2686,7 @@
         <v>238</v>
       </c>
       <c r="D109" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2700,7 +2700,7 @@
         <v>239</v>
       </c>
       <c r="D110" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2714,7 +2714,7 @@
         <v>240</v>
       </c>
       <c r="D111" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2742,7 +2742,7 @@
         <v>242</v>
       </c>
       <c r="D113" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2756,7 +2756,7 @@
         <v>243</v>
       </c>
       <c r="D114" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2770,7 +2770,7 @@
         <v>244</v>
       </c>
       <c r="D115" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2784,7 +2784,7 @@
         <v>245</v>
       </c>
       <c r="D116" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2798,7 +2798,7 @@
         <v>246</v>
       </c>
       <c r="D117" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2812,7 +2812,7 @@
         <v>247</v>
       </c>
       <c r="D118" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2854,7 +2854,7 @@
         <v>250</v>
       </c>
       <c r="D121" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2868,7 +2868,7 @@
         <v>251</v>
       </c>
       <c r="D122" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2882,7 +2882,7 @@
         <v>252</v>
       </c>
       <c r="D123" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2896,7 +2896,7 @@
         <v>253</v>
       </c>
       <c r="D124" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2910,7 +2910,7 @@
         <v>254</v>
       </c>
       <c r="D125" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2924,7 +2924,7 @@
         <v>255</v>
       </c>
       <c r="D126" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2938,7 +2938,7 @@
         <v>256</v>
       </c>
       <c r="D127" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2952,7 +2952,7 @@
         <v>257</v>
       </c>
       <c r="D128" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2966,7 +2966,7 @@
         <v>258</v>
       </c>
       <c r="D129" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/04_pairings.xlsx
+++ b/sequences/04_pairings.xlsx
@@ -409,388 +409,388 @@
     <t>house/house030.jpg</t>
   </si>
   <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
     <t>bitten</t>
   </si>
   <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>heißen</t>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>bergen</t>
   </si>
   <si>
     <t>wenden</t>
   </si>
   <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>lernen</t>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>sperren</t>
   </si>
   <si>
     <t>flower</t>

--- a/sequences/04_pairings.xlsx
+++ b/sequences/04_pairings.xlsx
@@ -25,784 +25,784 @@
     <t>category</t>
   </si>
   <si>
+    <t>house/house019.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog008.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower020.jpg</t>
+  </si>
+  <si>
+    <t>face/face017.jpg</t>
+  </si>
+  <si>
+    <t>face/face016.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower002.jpg</t>
+  </si>
+  <si>
+    <t>face/face028.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog002.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower014.jpg</t>
+  </si>
+  <si>
+    <t>house/house016.jpg</t>
+  </si>
+  <si>
+    <t>house/house011.jpg</t>
+  </si>
+  <si>
+    <t>face/face015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog000.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog021.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower026.jpg</t>
+  </si>
+  <si>
+    <t>face/face026.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower017.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog010.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog015.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower011.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog016.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog006.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog019.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower008.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower029.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower000.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower012.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>face/face019.jpg</t>
+  </si>
+  <si>
+    <t>house/house022.jpg</t>
+  </si>
+  <si>
+    <t>house/house014.jpg</t>
+  </si>
+  <si>
     <t>flower/flower018.jpg</t>
   </si>
   <si>
-    <t>dog/dog022.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog006.jpg</t>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>house/house012.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower007.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower023.jpg</t>
+  </si>
+  <si>
+    <t>house/house002.jpg</t>
+  </si>
+  <si>
+    <t>house/house006.jpg</t>
+  </si>
+  <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower004.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog031.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog026.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower003.jpg</t>
+  </si>
+  <si>
+    <t>face/face009.jpg</t>
+  </si>
+  <si>
+    <t>face/face021.jpg</t>
+  </si>
+  <si>
+    <t>house/house004.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog027.jpg</t>
+  </si>
+  <si>
+    <t>face/face007.jpg</t>
+  </si>
+  <si>
+    <t>face/face030.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower028.jpg</t>
+  </si>
+  <si>
+    <t>house/house015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog017.jpg</t>
+  </si>
+  <si>
+    <t>face/face031.jpg</t>
+  </si>
+  <si>
+    <t>house/house003.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog013.jpg</t>
+  </si>
+  <si>
+    <t>house/house013.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog007.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower006.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog029.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog014.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog018.jpg</t>
+  </si>
+  <si>
+    <t>house/house024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower021.jpg</t>
+  </si>
+  <si>
+    <t>face/face025.jpg</t>
+  </si>
+  <si>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog009.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower027.jpg</t>
+  </si>
+  <si>
+    <t>face/face022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower005.jpg</t>
+  </si>
+  <si>
+    <t>face/face006.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog003.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower031.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog001.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog005.jpg</t>
+  </si>
+  <si>
+    <t>house/house010.jpg</t>
+  </si>
+  <si>
+    <t>face/face004.jpg</t>
+  </si>
+  <si>
+    <t>face/face012.jpg</t>
+  </si>
+  <si>
+    <t>house/house031.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
+  </si>
+  <si>
+    <t>house/house023.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog025.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
+  </si>
+  <si>
+    <t>house/house030.jpg</t>
+  </si>
+  <si>
+    <t>house/house027.jpg</t>
+  </si>
+  <si>
+    <t>house/house001.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>face/face011.jpg</t>
+  </si>
+  <si>
+    <t>house/house028.jpg</t>
   </si>
   <si>
     <t>house/house008.jpg</t>
   </si>
   <si>
+    <t>flower/flower001.jpg</t>
+  </si>
+  <si>
+    <t>face/face013.jpg</t>
+  </si>
+  <si>
+    <t>house/house007.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog030.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower019.jpg</t>
+  </si>
+  <si>
+    <t>face/face008.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower010.jpg</t>
+  </si>
+  <si>
+    <t>house/house000.jpg</t>
+  </si>
+  <si>
+    <t>house/house026.jpg</t>
+  </si>
+  <si>
+    <t>house/house020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog011.jpg</t>
+  </si>
+  <si>
+    <t>house/house018.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog024.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog012.jpg</t>
+  </si>
+  <si>
+    <t>house/house017.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog028.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower025.jpg</t>
+  </si>
+  <si>
+    <t>house/house021.jpg</t>
+  </si>
+  <si>
+    <t>house/house005.jpg</t>
+  </si>
+  <si>
+    <t>face/face000.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog004.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower013.jpg</t>
+  </si>
+  <si>
+    <t>house/house029.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower030.jpg</t>
+  </si>
+  <si>
+    <t>house/house009.jpg</t>
+  </si>
+  <si>
+    <t>face/face029.jpg</t>
+  </si>
+  <si>
+    <t>face/face024.jpg</t>
+  </si>
+  <si>
     <t>face/face010.jpg</t>
   </si>
   <si>
-    <t>face/face001.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog007.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog013.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog016.jpg</t>
-  </si>
-  <si>
-    <t>house/house005.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog026.jpg</t>
-  </si>
-  <si>
-    <t>face/face025.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog004.jpg</t>
-  </si>
-  <si>
-    <t>face/face006.jpg</t>
-  </si>
-  <si>
-    <t>face/face015.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower003.jpg</t>
-  </si>
-  <si>
-    <t>face/face008.jpg</t>
-  </si>
-  <si>
-    <t>house/house019.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog029.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower008.jpg</t>
-  </si>
-  <si>
-    <t>face/face017.jpg</t>
-  </si>
-  <si>
-    <t>house/house003.jpg</t>
-  </si>
-  <si>
-    <t>house/house001.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower020.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower002.jpg</t>
-  </si>
-  <si>
-    <t>house/house000.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower013.jpg</t>
-  </si>
-  <si>
-    <t>face/face021.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower005.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>face/face020.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower011.jpg</t>
-  </si>
-  <si>
-    <t>face/face000.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower030.jpg</t>
-  </si>
-  <si>
-    <t>house/house004.jpg</t>
-  </si>
-  <si>
-    <t>face/face018.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog017.jpg</t>
-  </si>
-  <si>
-    <t>face/face004.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog002.jpg</t>
-  </si>
-  <si>
-    <t>house/house015.jpg</t>
-  </si>
-  <si>
-    <t>face/face002.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog008.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower012.jpg</t>
-  </si>
-  <si>
-    <t>house/house022.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog023.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog019.jpg</t>
-  </si>
-  <si>
-    <t>face/face023.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower022.jpg</t>
-  </si>
-  <si>
-    <t>face/face016.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog003.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower004.jpg</t>
-  </si>
-  <si>
-    <t>house/house021.jpg</t>
-  </si>
-  <si>
-    <t>face/face009.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog005.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog009.jpg</t>
-  </si>
-  <si>
     <t>house/house025.jpg</t>
   </si>
   <si>
-    <t>face/face019.jpg</t>
-  </si>
-  <si>
-    <t>house/house010.jpg</t>
-  </si>
-  <si>
-    <t>house/house016.jpg</t>
-  </si>
-  <si>
-    <t>house/house011.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower021.jpg</t>
-  </si>
-  <si>
-    <t>house/house013.jpg</t>
-  </si>
-  <si>
-    <t>house/house027.jpg</t>
-  </si>
-  <si>
-    <t>face/face012.jpg</t>
-  </si>
-  <si>
-    <t>face/face022.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog015.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower001.jpg</t>
-  </si>
-  <si>
-    <t>house/house018.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower031.jpg</t>
-  </si>
-  <si>
-    <t>house/house023.jpg</t>
-  </si>
-  <si>
-    <t>house/house012.jpg</t>
-  </si>
-  <si>
-    <t>face/face007.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog030.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower028.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog014.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog001.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower027.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower006.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower019.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog025.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog010.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower017.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower023.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog000.jpg</t>
-  </si>
-  <si>
     <t>face/face003.jpg</t>
   </si>
   <si>
-    <t>dog/dog012.jpg</t>
-  </si>
-  <si>
-    <t>house/house009.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog028.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower000.jpg</t>
-  </si>
-  <si>
-    <t>house/house017.jpg</t>
-  </si>
-  <si>
-    <t>face/face013.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower015.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog011.jpg</t>
-  </si>
-  <si>
-    <t>house/house020.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog024.jpg</t>
-  </si>
-  <si>
-    <t>house/house028.jpg</t>
-  </si>
-  <si>
-    <t>face/face026.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower026.jpg</t>
-  </si>
-  <si>
-    <t>face/face005.jpg</t>
-  </si>
-  <si>
-    <t>face/face011.jpg</t>
-  </si>
-  <si>
-    <t>house/house030.jpg</t>
-  </si>
-  <si>
-    <t>house/house007.jpg</t>
-  </si>
-  <si>
-    <t>house/house031.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower007.jpg</t>
-  </si>
-  <si>
-    <t>face/face031.jpg</t>
-  </si>
-  <si>
-    <t>face/face029.jpg</t>
-  </si>
-  <si>
-    <t>face/face027.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower010.jpg</t>
-  </si>
-  <si>
-    <t>face/face014.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog027.jpg</t>
-  </si>
-  <si>
-    <t>house/house029.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog018.jpg</t>
-  </si>
-  <si>
-    <t>house/house026.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower024.jpg</t>
-  </si>
-  <si>
-    <t>face/face028.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog020.jpg</t>
-  </si>
-  <si>
-    <t>face/face024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower025.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower014.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog021.jpg</t>
-  </si>
-  <si>
-    <t>house/house014.jpg</t>
-  </si>
-  <si>
-    <t>face/face030.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower029.jpg</t>
-  </si>
-  <si>
-    <t>house/house024.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog031.jpg</t>
-  </si>
-  <si>
-    <t>house/house002.jpg</t>
-  </si>
-  <si>
-    <t>house/house006.jpg</t>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>schreiben</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>nerven</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>gelten</t>
   </si>
   <si>
     <t>fühlen</t>
   </si>
   <si>
-    <t>landen</t>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>sehen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>kleben</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>leuchten</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>schweben</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>stopfen</t>
+  </si>
+  <si>
+    <t>albern</t>
   </si>
   <si>
     <t>altern</t>
   </si>
   <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
     <t>faulen</t>
   </si>
   <si>
-    <t>buchen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>mühen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>packen</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>parken</t>
   </si>
   <si>
     <t>gleichen</t>
   </si>
   <si>
+    <t>kommen</t>
+  </si>
+  <si>
+    <t>triefen</t>
+  </si>
+  <si>
     <t>reizen</t>
   </si>
   <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>brauchen</t>
-  </si>
-  <si>
-    <t>biegen</t>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>retten</t>
   </si>
   <si>
     <t>steuern</t>
   </si>
   <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>segnen</t>
-  </si>
-  <si>
-    <t>geben</t>
-  </si>
-  <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>kleben</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>nerven</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>retten</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>stürmen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>decken</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>bieten</t>
-  </si>
-  <si>
-    <t>streichen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>packen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>fordern</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>schneiden</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>treten</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>dringen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
     <t>leiten</t>
   </si>
   <si>
-    <t>schwimmen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>leuchten</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>sehen</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>schreiben</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>zahlen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>seufzen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>schweben</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>albern</t>
+    <t>house</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>dog</t>
   </si>
   <si>
     <t>flower</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>face</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1207,7 @@
         <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1229,7 +1229,7 @@
         <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1240,7 +1240,7 @@
         <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1273,7 +1273,7 @@
         <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1284,7 +1284,7 @@
         <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1295,7 +1295,7 @@
         <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1306,7 +1306,7 @@
         <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1328,7 +1328,7 @@
         <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1350,7 +1350,7 @@
         <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1372,7 +1372,7 @@
         <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1383,7 +1383,7 @@
         <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1394,7 +1394,7 @@
         <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1405,7 +1405,7 @@
         <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1416,7 +1416,7 @@
         <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1438,7 +1438,7 @@
         <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1449,7 +1449,7 @@
         <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1471,7 +1471,7 @@
         <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1482,7 +1482,7 @@
         <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1493,7 +1493,7 @@
         <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1504,7 +1504,7 @@
         <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1526,7 +1526,7 @@
         <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1537,7 +1537,7 @@
         <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1559,7 +1559,7 @@
         <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1570,7 +1570,7 @@
         <v>166</v>
       </c>
       <c r="C37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1603,7 +1603,7 @@
         <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1614,7 +1614,7 @@
         <v>170</v>
       </c>
       <c r="C41" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1625,7 +1625,7 @@
         <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1647,7 +1647,7 @@
         <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1669,7 +1669,7 @@
         <v>175</v>
       </c>
       <c r="C46" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1680,7 +1680,7 @@
         <v>176</v>
       </c>
       <c r="C47" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1691,7 +1691,7 @@
         <v>177</v>
       </c>
       <c r="C48" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1702,7 +1702,7 @@
         <v>178</v>
       </c>
       <c r="C49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1713,7 +1713,7 @@
         <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1724,7 +1724,7 @@
         <v>180</v>
       </c>
       <c r="C51" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1735,7 +1735,7 @@
         <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1746,7 +1746,7 @@
         <v>182</v>
       </c>
       <c r="C53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1768,7 +1768,7 @@
         <v>184</v>
       </c>
       <c r="C55" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1779,7 +1779,7 @@
         <v>185</v>
       </c>
       <c r="C56" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1801,7 +1801,7 @@
         <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1812,7 +1812,7 @@
         <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1823,7 +1823,7 @@
         <v>189</v>
       </c>
       <c r="C60" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1845,7 +1845,7 @@
         <v>191</v>
       </c>
       <c r="C62" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1856,7 +1856,7 @@
         <v>192</v>
       </c>
       <c r="C63" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1889,7 +1889,7 @@
         <v>195</v>
       </c>
       <c r="C66" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1911,7 +1911,7 @@
         <v>197</v>
       </c>
       <c r="C68" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1933,7 +1933,7 @@
         <v>199</v>
       </c>
       <c r="C70" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1944,7 +1944,7 @@
         <v>200</v>
       </c>
       <c r="C71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>201</v>
       </c>
       <c r="C72" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1977,7 +1977,7 @@
         <v>203</v>
       </c>
       <c r="C74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1988,7 +1988,7 @@
         <v>204</v>
       </c>
       <c r="C75" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1999,7 +1999,7 @@
         <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2010,7 +2010,7 @@
         <v>206</v>
       </c>
       <c r="C77" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2032,7 +2032,7 @@
         <v>208</v>
       </c>
       <c r="C79" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2043,7 +2043,7 @@
         <v>209</v>
       </c>
       <c r="C80" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2054,7 +2054,7 @@
         <v>210</v>
       </c>
       <c r="C81" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2065,7 +2065,7 @@
         <v>211</v>
       </c>
       <c r="C82" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2076,7 +2076,7 @@
         <v>212</v>
       </c>
       <c r="C83" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2087,7 +2087,7 @@
         <v>213</v>
       </c>
       <c r="C84" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2098,7 +2098,7 @@
         <v>214</v>
       </c>
       <c r="C85" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2109,7 +2109,7 @@
         <v>215</v>
       </c>
       <c r="C86" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2120,7 +2120,7 @@
         <v>216</v>
       </c>
       <c r="C87" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2131,7 +2131,7 @@
         <v>217</v>
       </c>
       <c r="C88" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2175,7 +2175,7 @@
         <v>221</v>
       </c>
       <c r="C92" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2186,7 +2186,7 @@
         <v>222</v>
       </c>
       <c r="C93" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2197,7 +2197,7 @@
         <v>223</v>
       </c>
       <c r="C94" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2219,7 +2219,7 @@
         <v>225</v>
       </c>
       <c r="C96" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2230,7 +2230,7 @@
         <v>226</v>
       </c>
       <c r="C97" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2241,7 +2241,7 @@
         <v>227</v>
       </c>
       <c r="C98" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2252,7 +2252,7 @@
         <v>228</v>
       </c>
       <c r="C99" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2274,7 +2274,7 @@
         <v>230</v>
       </c>
       <c r="C101" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2296,7 +2296,7 @@
         <v>232</v>
       </c>
       <c r="C103" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="C104" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>234</v>
       </c>
       <c r="C105" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2340,7 +2340,7 @@
         <v>236</v>
       </c>
       <c r="C107" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2351,7 +2351,7 @@
         <v>237</v>
       </c>
       <c r="C108" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2362,7 +2362,7 @@
         <v>238</v>
       </c>
       <c r="C109" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2373,7 +2373,7 @@
         <v>239</v>
       </c>
       <c r="C110" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2384,7 +2384,7 @@
         <v>240</v>
       </c>
       <c r="C111" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2395,7 +2395,7 @@
         <v>241</v>
       </c>
       <c r="C112" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2417,7 +2417,7 @@
         <v>243</v>
       </c>
       <c r="C114" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2428,7 +2428,7 @@
         <v>244</v>
       </c>
       <c r="C115" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2450,7 +2450,7 @@
         <v>246</v>
       </c>
       <c r="C117" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2461,7 +2461,7 @@
         <v>247</v>
       </c>
       <c r="C118" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2472,7 +2472,7 @@
         <v>248</v>
       </c>
       <c r="C119" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2483,7 +2483,7 @@
         <v>249</v>
       </c>
       <c r="C120" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2494,7 +2494,7 @@
         <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2505,7 +2505,7 @@
         <v>251</v>
       </c>
       <c r="C122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2516,7 +2516,7 @@
         <v>252</v>
       </c>
       <c r="C123" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2527,7 +2527,7 @@
         <v>253</v>
       </c>
       <c r="C124" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2538,7 +2538,7 @@
         <v>254</v>
       </c>
       <c r="C125" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2549,7 +2549,7 @@
         <v>255</v>
       </c>
       <c r="C126" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2571,7 +2571,7 @@
         <v>257</v>
       </c>
       <c r="C128" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2582,7 +2582,7 @@
         <v>258</v>
       </c>
       <c r="C129" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/04_pairings.xlsx
+++ b/sequences/04_pairings.xlsx
@@ -25,784 +25,784 @@
     <t>category</t>
   </si>
   <si>
+    <t>flower/flower028.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower008.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
+  </si>
+  <si>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>house/house014.jpg</t>
+  </si>
+  <si>
+    <t>house/house000.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower007.jpg</t>
+  </si>
+  <si>
+    <t>face/face017.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower004.jpg</t>
+  </si>
+  <si>
+    <t>house/house020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog005.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog019.jpg</t>
+  </si>
+  <si>
+    <t>face/face029.jpg</t>
+  </si>
+  <si>
+    <t>face/face030.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog013.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog000.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog009.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower011.jpg</t>
+  </si>
+  <si>
+    <t>house/house012.jpg</t>
+  </si>
+  <si>
+    <t>face/face026.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower013.jpg</t>
+  </si>
+  <si>
+    <t>house/house002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog025.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower001.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower020.jpg</t>
+  </si>
+  <si>
+    <t>house/house016.jpg</t>
+  </si>
+  <si>
+    <t>house/house024.jpg</t>
+  </si>
+  <si>
+    <t>house/house007.jpg</t>
+  </si>
+  <si>
+    <t>face/face008.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog014.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog001.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog018.jpg</t>
+  </si>
+  <si>
+    <t>face/face028.jpg</t>
+  </si>
+  <si>
+    <t>face/face016.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>house/house003.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog029.jpg</t>
+  </si>
+  <si>
+    <t>house/house025.jpg</t>
+  </si>
+  <si>
+    <t>house/house011.jpg</t>
+  </si>
+  <si>
+    <t>house/house030.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog010.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog003.jpg</t>
+  </si>
+  <si>
+    <t>house/house008.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower019.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog024.jpg</t>
+  </si>
+  <si>
+    <t>face/face015.jpg</t>
+  </si>
+  <si>
+    <t>house/house027.jpg</t>
+  </si>
+  <si>
+    <t>house/house028.jpg</t>
+  </si>
+  <si>
+    <t>face/face031.jpg</t>
+  </si>
+  <si>
+    <t>face/face022.jpg</t>
+  </si>
+  <si>
+    <t>house/house005.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog020.jpg</t>
+  </si>
+  <si>
+    <t>house/house017.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower030.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog007.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog004.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog021.jpg</t>
+  </si>
+  <si>
+    <t>face/face024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower031.jpg</t>
+  </si>
+  <si>
+    <t>face/face012.jpg</t>
+  </si>
+  <si>
+    <t>face/face004.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower024.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog031.jpg</t>
+  </si>
+  <si>
+    <t>face/face006.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower018.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog030.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog011.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower005.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower025.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog017.jpg</t>
+  </si>
+  <si>
+    <t>face/face007.jpg</t>
+  </si>
+  <si>
+    <t>house/house021.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower003.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog022.jpg</t>
+  </si>
+  <si>
+    <t>house/house015.jpg</t>
+  </si>
+  <si>
+    <t>house/house023.jpg</t>
+  </si>
+  <si>
+    <t>house/house029.jpg</t>
+  </si>
+  <si>
+    <t>face/face009.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower017.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog028.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower029.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>face/face000.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower006.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower015.jpg</t>
+  </si>
+  <si>
     <t>house/house019.jpg</t>
   </si>
   <si>
-    <t>face/face027.jpg</t>
+    <t>house/house004.jpg</t>
+  </si>
+  <si>
+    <t>house/house013.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>face/face010.jpg</t>
+  </si>
+  <si>
+    <t>house/house009.jpg</t>
+  </si>
+  <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>face/face025.jpg</t>
+  </si>
+  <si>
+    <t>face/face003.jpg</t>
+  </si>
+  <si>
+    <t>house/house006.jpg</t>
+  </si>
+  <si>
+    <t>house/house018.jpg</t>
+  </si>
+  <si>
+    <t>house/house001.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog016.jpg</t>
+  </si>
+  <si>
+    <t>face/face019.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog012.jpg</t>
+  </si>
+  <si>
+    <t>face/face021.jpg</t>
+  </si>
+  <si>
+    <t>house/house010.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower014.jpg</t>
+  </si>
+  <si>
+    <t>house/house031.jpg</t>
+  </si>
+  <si>
+    <t>face/face013.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog026.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower021.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog027.jpg</t>
+  </si>
+  <si>
+    <t>house/house026.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower002.jpg</t>
+  </si>
+  <si>
+    <t>house/house022.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog015.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower000.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower026.jpg</t>
   </si>
   <si>
     <t>dog/dog008.jpg</t>
   </si>
   <si>
-    <t>flower/flower020.jpg</t>
-  </si>
-  <si>
-    <t>face/face017.jpg</t>
-  </si>
-  <si>
-    <t>face/face016.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower002.jpg</t>
-  </si>
-  <si>
-    <t>face/face028.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog002.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower014.jpg</t>
-  </si>
-  <si>
-    <t>house/house016.jpg</t>
-  </si>
-  <si>
-    <t>house/house011.jpg</t>
-  </si>
-  <si>
-    <t>face/face015.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog000.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog021.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog022.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower026.jpg</t>
-  </si>
-  <si>
-    <t>face/face026.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower017.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog010.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog015.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower011.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog016.jpg</t>
-  </si>
-  <si>
     <t>dog/dog006.jpg</t>
   </si>
   <si>
-    <t>dog/dog019.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower008.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower029.jpg</t>
-  </si>
-  <si>
-    <t>face/face014.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower000.jpg</t>
+    <t>face/face011.jpg</t>
   </si>
   <si>
     <t>flower/flower012.jpg</t>
   </si>
   <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>face/face019.jpg</t>
-  </si>
-  <si>
-    <t>house/house022.jpg</t>
-  </si>
-  <si>
-    <t>house/house014.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower018.jpg</t>
-  </si>
-  <si>
-    <t>face/face023.jpg</t>
-  </si>
-  <si>
-    <t>house/house012.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower007.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower023.jpg</t>
-  </si>
-  <si>
-    <t>house/house002.jpg</t>
-  </si>
-  <si>
-    <t>house/house006.jpg</t>
-  </si>
-  <si>
-    <t>face/face018.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower004.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog031.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog026.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower003.jpg</t>
-  </si>
-  <si>
-    <t>face/face009.jpg</t>
-  </si>
-  <si>
-    <t>face/face021.jpg</t>
-  </si>
-  <si>
-    <t>house/house004.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog027.jpg</t>
-  </si>
-  <si>
-    <t>face/face007.jpg</t>
-  </si>
-  <si>
-    <t>face/face030.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower028.jpg</t>
-  </si>
-  <si>
-    <t>house/house015.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog017.jpg</t>
-  </si>
-  <si>
-    <t>face/face031.jpg</t>
-  </si>
-  <si>
-    <t>house/house003.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog013.jpg</t>
-  </si>
-  <si>
-    <t>house/house013.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog007.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower006.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog029.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog014.jpg</t>
-  </si>
-  <si>
-    <t>face/face020.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower015.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog018.jpg</t>
-  </si>
-  <si>
-    <t>house/house024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower021.jpg</t>
-  </si>
-  <si>
-    <t>face/face025.jpg</t>
-  </si>
-  <si>
-    <t>face/face002.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog009.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog023.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower027.jpg</t>
-  </si>
-  <si>
-    <t>face/face022.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower005.jpg</t>
-  </si>
-  <si>
-    <t>face/face006.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog003.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower031.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog001.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog005.jpg</t>
-  </si>
-  <si>
-    <t>house/house010.jpg</t>
-  </si>
-  <si>
-    <t>face/face004.jpg</t>
-  </si>
-  <si>
-    <t>face/face012.jpg</t>
-  </si>
-  <si>
-    <t>house/house031.jpg</t>
-  </si>
-  <si>
-    <t>face/face001.jpg</t>
-  </si>
-  <si>
-    <t>house/house023.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog025.jpg</t>
-  </si>
-  <si>
-    <t>face/face005.jpg</t>
-  </si>
-  <si>
-    <t>house/house030.jpg</t>
-  </si>
-  <si>
-    <t>house/house027.jpg</t>
-  </si>
-  <si>
-    <t>house/house001.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>face/face011.jpg</t>
-  </si>
-  <si>
-    <t>house/house028.jpg</t>
-  </si>
-  <si>
-    <t>house/house008.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower001.jpg</t>
-  </si>
-  <si>
-    <t>face/face013.jpg</t>
-  </si>
-  <si>
-    <t>house/house007.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog030.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower019.jpg</t>
-  </si>
-  <si>
-    <t>face/face008.jpg</t>
-  </si>
-  <si>
     <t>flower/flower010.jpg</t>
   </si>
   <si>
-    <t>house/house000.jpg</t>
-  </si>
-  <si>
-    <t>house/house026.jpg</t>
-  </si>
-  <si>
-    <t>house/house020.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog011.jpg</t>
-  </si>
-  <si>
-    <t>house/house018.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog024.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog012.jpg</t>
-  </si>
-  <si>
-    <t>house/house017.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog028.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower025.jpg</t>
-  </si>
-  <si>
-    <t>house/house021.jpg</t>
-  </si>
-  <si>
-    <t>house/house005.jpg</t>
-  </si>
-  <si>
-    <t>face/face000.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog020.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog004.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower022.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower013.jpg</t>
-  </si>
-  <si>
-    <t>house/house029.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower030.jpg</t>
-  </si>
-  <si>
-    <t>house/house009.jpg</t>
-  </si>
-  <si>
-    <t>face/face029.jpg</t>
-  </si>
-  <si>
-    <t>face/face024.jpg</t>
-  </si>
-  <si>
-    <t>face/face010.jpg</t>
-  </si>
-  <si>
-    <t>house/house025.jpg</t>
-  </si>
-  <si>
-    <t>face/face003.jpg</t>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>schweben</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>triefen</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>mühen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>nerven</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>faulen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>leiten</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>sehen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>leuchten</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>kleben</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>wohnen</t>
   </si>
   <si>
     <t>heilen</t>
   </si>
   <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>treten</t>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>kommen</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>stopfen</t>
+  </si>
+  <si>
+    <t>packen</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>schütteln</t>
   </si>
   <si>
     <t>schreiben</t>
   </si>
   <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>dringen</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>bieten</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>geben</t>
-  </si>
-  <si>
-    <t>nerven</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>sehen</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>streichen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>brauchen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>kleben</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>stürmen</t>
-  </si>
-  <si>
-    <t>fordern</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>schwimmen</t>
-  </si>
-  <si>
-    <t>leuchten</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>buchen</t>
-  </si>
-  <si>
-    <t>zahlen</t>
-  </si>
-  <si>
-    <t>schweben</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>decken</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
     <t>seufzen</t>
   </si>
   <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>packen</t>
-  </si>
-  <si>
-    <t>segnen</t>
-  </si>
-  <si>
-    <t>schneiden</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>reizen</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>retten</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>leiten</t>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>face</t>
   </si>
   <si>
     <t>house</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
     <t>dog</t>
-  </si>
-  <si>
-    <t>flower</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1196,7 @@
         <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1207,7 +1207,7 @@
         <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1229,7 +1229,7 @@
         <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1240,7 +1240,7 @@
         <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1273,7 +1273,7 @@
         <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1284,7 +1284,7 @@
         <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1295,7 +1295,7 @@
         <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1306,7 +1306,7 @@
         <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1317,7 +1317,7 @@
         <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1328,7 +1328,7 @@
         <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1350,7 +1350,7 @@
         <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1372,7 +1372,7 @@
         <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1383,7 +1383,7 @@
         <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1405,7 +1405,7 @@
         <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1416,7 +1416,7 @@
         <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1438,7 +1438,7 @@
         <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1449,7 +1449,7 @@
         <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1471,7 +1471,7 @@
         <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1482,7 +1482,7 @@
         <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1493,7 +1493,7 @@
         <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1504,7 +1504,7 @@
         <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1526,7 +1526,7 @@
         <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1537,7 +1537,7 @@
         <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1548,7 +1548,7 @@
         <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1559,7 +1559,7 @@
         <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1603,7 +1603,7 @@
         <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1614,7 +1614,7 @@
         <v>170</v>
       </c>
       <c r="C41" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1625,7 +1625,7 @@
         <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1636,7 +1636,7 @@
         <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1647,7 +1647,7 @@
         <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1658,7 +1658,7 @@
         <v>174</v>
       </c>
       <c r="C45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1669,7 +1669,7 @@
         <v>175</v>
       </c>
       <c r="C46" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1680,7 +1680,7 @@
         <v>176</v>
       </c>
       <c r="C47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1691,7 +1691,7 @@
         <v>177</v>
       </c>
       <c r="C48" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1702,7 +1702,7 @@
         <v>178</v>
       </c>
       <c r="C49" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1713,7 +1713,7 @@
         <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1735,7 +1735,7 @@
         <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1757,7 +1757,7 @@
         <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1768,7 +1768,7 @@
         <v>184</v>
       </c>
       <c r="C55" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1779,7 +1779,7 @@
         <v>185</v>
       </c>
       <c r="C56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1790,7 +1790,7 @@
         <v>186</v>
       </c>
       <c r="C57" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1812,7 +1812,7 @@
         <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1823,7 +1823,7 @@
         <v>189</v>
       </c>
       <c r="C60" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1834,7 +1834,7 @@
         <v>190</v>
       </c>
       <c r="C61" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1856,7 +1856,7 @@
         <v>192</v>
       </c>
       <c r="C63" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1867,7 +1867,7 @@
         <v>193</v>
       </c>
       <c r="C64" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1878,7 +1878,7 @@
         <v>194</v>
       </c>
       <c r="C65" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1900,7 +1900,7 @@
         <v>196</v>
       </c>
       <c r="C67" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1911,7 +1911,7 @@
         <v>197</v>
       </c>
       <c r="C68" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1922,7 +1922,7 @@
         <v>198</v>
       </c>
       <c r="C69" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1933,7 +1933,7 @@
         <v>199</v>
       </c>
       <c r="C70" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1944,7 +1944,7 @@
         <v>200</v>
       </c>
       <c r="C71" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>201</v>
       </c>
       <c r="C72" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1966,7 +1966,7 @@
         <v>202</v>
       </c>
       <c r="C73" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1977,7 +1977,7 @@
         <v>203</v>
       </c>
       <c r="C74" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1988,7 +1988,7 @@
         <v>204</v>
       </c>
       <c r="C75" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1999,7 +1999,7 @@
         <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2010,7 +2010,7 @@
         <v>206</v>
       </c>
       <c r="C77" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2021,7 +2021,7 @@
         <v>207</v>
       </c>
       <c r="C78" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2032,7 +2032,7 @@
         <v>208</v>
       </c>
       <c r="C79" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2076,7 +2076,7 @@
         <v>212</v>
       </c>
       <c r="C83" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2098,7 +2098,7 @@
         <v>214</v>
       </c>
       <c r="C85" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2109,7 +2109,7 @@
         <v>215</v>
       </c>
       <c r="C86" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2120,7 +2120,7 @@
         <v>216</v>
       </c>
       <c r="C87" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2131,7 +2131,7 @@
         <v>217</v>
       </c>
       <c r="C88" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2142,7 +2142,7 @@
         <v>218</v>
       </c>
       <c r="C89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2153,7 +2153,7 @@
         <v>219</v>
       </c>
       <c r="C90" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2175,7 +2175,7 @@
         <v>221</v>
       </c>
       <c r="C92" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2186,7 +2186,7 @@
         <v>222</v>
       </c>
       <c r="C93" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2197,7 +2197,7 @@
         <v>223</v>
       </c>
       <c r="C94" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2219,7 +2219,7 @@
         <v>225</v>
       </c>
       <c r="C96" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2230,7 +2230,7 @@
         <v>226</v>
       </c>
       <c r="C97" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2241,7 +2241,7 @@
         <v>227</v>
       </c>
       <c r="C98" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2263,7 +2263,7 @@
         <v>229</v>
       </c>
       <c r="C100" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2285,7 +2285,7 @@
         <v>231</v>
       </c>
       <c r="C102" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2296,7 +2296,7 @@
         <v>232</v>
       </c>
       <c r="C103" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>234</v>
       </c>
       <c r="C105" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2329,7 +2329,7 @@
         <v>235</v>
       </c>
       <c r="C106" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2340,7 +2340,7 @@
         <v>236</v>
       </c>
       <c r="C107" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2384,7 +2384,7 @@
         <v>240</v>
       </c>
       <c r="C111" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2395,7 +2395,7 @@
         <v>241</v>
       </c>
       <c r="C112" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2406,7 +2406,7 @@
         <v>242</v>
       </c>
       <c r="C113" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2450,7 +2450,7 @@
         <v>246</v>
       </c>
       <c r="C117" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2461,7 +2461,7 @@
         <v>247</v>
       </c>
       <c r="C118" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2483,7 +2483,7 @@
         <v>249</v>
       </c>
       <c r="C120" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2494,7 +2494,7 @@
         <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2505,7 +2505,7 @@
         <v>251</v>
       </c>
       <c r="C122" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2516,7 +2516,7 @@
         <v>252</v>
       </c>
       <c r="C123" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2538,7 +2538,7 @@
         <v>254</v>
       </c>
       <c r="C125" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2549,7 +2549,7 @@
         <v>255</v>
       </c>
       <c r="C126" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2582,7 +2582,7 @@
         <v>258</v>
       </c>
       <c r="C129" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/04_pairings.xlsx
+++ b/sequences/04_pairings.xlsx
@@ -25,781 +25,781 @@
     <t>category</t>
   </si>
   <si>
+    <t>house/house004.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower019.jpg</t>
+  </si>
+  <si>
+    <t>face/face004.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog021.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog003.jpg</t>
+  </si>
+  <si>
+    <t>house/house002.jpg</t>
+  </si>
+  <si>
+    <t>house/house031.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog000.jpg</t>
+  </si>
+  <si>
+    <t>face/face025.jpg</t>
+  </si>
+  <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower007.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower004.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog024.jpg</t>
+  </si>
+  <si>
+    <t>face/face006.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower025.jpg</t>
+  </si>
+  <si>
+    <t>face/face029.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog031.jpg</t>
+  </si>
+  <si>
     <t>flower/flower028.jpg</t>
   </si>
   <si>
+    <t>flower/flower018.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog002.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower011.jpg</t>
+  </si>
+  <si>
+    <t>face/face016.jpg</t>
+  </si>
+  <si>
+    <t>house/house009.jpg</t>
+  </si>
+  <si>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>house/house030.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower017.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower001.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog029.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower021.jpg</t>
+  </si>
+  <si>
+    <t>house/house010.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog014.jpg</t>
+  </si>
+  <si>
+    <t>house/house012.jpg</t>
+  </si>
+  <si>
+    <t>face/face000.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog030.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>house/house008.jpg</t>
+  </si>
+  <si>
+    <t>house/house023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower010.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog011.jpg</t>
+  </si>
+  <si>
+    <t>face/face009.jpg</t>
+  </si>
+  <si>
+    <t>house/house000.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower003.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower027.jpg</t>
+  </si>
+  <si>
+    <t>face/face019.jpg</t>
+  </si>
+  <si>
+    <t>face/face028.jpg</t>
+  </si>
+  <si>
+    <t>house/house007.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog008.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog001.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog028.jpg</t>
+  </si>
+  <si>
+    <t>house/house028.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
+  </si>
+  <si>
+    <t>house/house022.jpg</t>
+  </si>
+  <si>
+    <t>face/face010.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog018.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog010.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower030.jpg</t>
+  </si>
+  <si>
+    <t>house/house003.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower006.jpg</t>
+  </si>
+  <si>
+    <t>house/house029.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower000.jpg</t>
+  </si>
+  <si>
+    <t>house/house027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog025.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog006.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower005.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower029.jpg</t>
+  </si>
+  <si>
+    <t>house/house001.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower014.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog012.jpg</t>
+  </si>
+  <si>
+    <t>face/face015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog016.jpg</t>
+  </si>
+  <si>
     <t>flower/flower008.jpg</t>
   </si>
   <si>
-    <t>face/face001.jpg</t>
-  </si>
-  <si>
-    <t>face/face002.jpg</t>
+    <t>house/house013.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog026.jpg</t>
+  </si>
+  <si>
+    <t>face/face031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower013.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog020.jpg</t>
+  </si>
+  <si>
+    <t>face/face022.jpg</t>
+  </si>
+  <si>
+    <t>house/house021.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog017.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog004.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower022.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog005.jpg</t>
+  </si>
+  <si>
+    <t>face/face026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog027.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog009.jpg</t>
+  </si>
+  <si>
+    <t>house/house011.jpg</t>
+  </si>
+  <si>
+    <t>house/house025.jpg</t>
+  </si>
+  <si>
+    <t>house/house005.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower012.jpg</t>
+  </si>
+  <si>
+    <t>house/house006.jpg</t>
+  </si>
+  <si>
+    <t>face/face007.jpg</t>
+  </si>
+  <si>
+    <t>house/house024.jpg</t>
+  </si>
+  <si>
+    <t>house/house016.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog013.jpg</t>
+  </si>
+  <si>
+    <t>house/house015.jpg</t>
+  </si>
+  <si>
+    <t>face/face008.jpg</t>
   </si>
   <si>
     <t>house/house014.jpg</t>
   </si>
   <si>
-    <t>house/house000.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower007.jpg</t>
+    <t>face/face021.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog023.jpg</t>
+  </si>
+  <si>
+    <t>face/face011.jpg</t>
   </si>
   <si>
     <t>face/face017.jpg</t>
   </si>
   <si>
-    <t>flower/flower023.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower004.jpg</t>
+    <t>face/face013.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower031.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog007.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog019.jpg</t>
   </si>
   <si>
     <t>house/house020.jpg</t>
   </si>
   <si>
-    <t>dog/dog005.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog019.jpg</t>
-  </si>
-  <si>
-    <t>face/face029.jpg</t>
+    <t>house/house018.jpg</t>
+  </si>
+  <si>
+    <t>house/house017.jpg</t>
   </si>
   <si>
     <t>face/face030.jpg</t>
   </si>
   <si>
-    <t>dog/dog013.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog000.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog009.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower011.jpg</t>
-  </si>
-  <si>
-    <t>house/house012.jpg</t>
-  </si>
-  <si>
-    <t>face/face026.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower013.jpg</t>
-  </si>
-  <si>
-    <t>house/house002.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog025.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower001.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower020.jpg</t>
-  </si>
-  <si>
-    <t>house/house016.jpg</t>
-  </si>
-  <si>
-    <t>house/house024.jpg</t>
-  </si>
-  <si>
-    <t>house/house007.jpg</t>
-  </si>
-  <si>
-    <t>face/face008.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog014.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog001.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog018.jpg</t>
-  </si>
-  <si>
-    <t>face/face028.jpg</t>
-  </si>
-  <si>
-    <t>face/face016.jpg</t>
-  </si>
-  <si>
-    <t>face/face027.jpg</t>
-  </si>
-  <si>
-    <t>house/house003.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog029.jpg</t>
-  </si>
-  <si>
-    <t>house/house025.jpg</t>
-  </si>
-  <si>
-    <t>house/house011.jpg</t>
-  </si>
-  <si>
-    <t>house/house030.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower022.jpg</t>
+    <t>face/face003.jpg</t>
+  </si>
+  <si>
+    <t>house/house026.jpg</t>
   </si>
   <si>
     <t>flower/flower033.jpg</t>
   </si>
   <si>
-    <t>dog/dog010.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog003.jpg</t>
-  </si>
-  <si>
-    <t>house/house008.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower019.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog024.jpg</t>
-  </si>
-  <si>
-    <t>face/face015.jpg</t>
-  </si>
-  <si>
-    <t>house/house027.jpg</t>
-  </si>
-  <si>
-    <t>house/house028.jpg</t>
-  </si>
-  <si>
-    <t>face/face031.jpg</t>
-  </si>
-  <si>
-    <t>face/face022.jpg</t>
-  </si>
-  <si>
-    <t>house/house005.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog020.jpg</t>
-  </si>
-  <si>
-    <t>house/house017.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower030.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower027.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog007.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog004.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog021.jpg</t>
+    <t>flower/flower002.jpg</t>
   </si>
   <si>
     <t>face/face024.jpg</t>
   </si>
   <si>
-    <t>flower/flower031.jpg</t>
-  </si>
-  <si>
     <t>face/face012.jpg</t>
   </si>
   <si>
-    <t>face/face004.jpg</t>
+    <t>house/house019.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog022.jpg</t>
   </si>
   <si>
     <t>flower/flower024.jpg</t>
   </si>
   <si>
-    <t>dog/dog031.jpg</t>
-  </si>
-  <si>
-    <t>face/face006.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower018.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog030.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog011.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog023.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower005.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower025.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog017.jpg</t>
-  </si>
-  <si>
-    <t>face/face007.jpg</t>
-  </si>
-  <si>
-    <t>house/house021.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower003.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog022.jpg</t>
-  </si>
-  <si>
-    <t>house/house015.jpg</t>
-  </si>
-  <si>
-    <t>house/house023.jpg</t>
-  </si>
-  <si>
-    <t>house/house029.jpg</t>
-  </si>
-  <si>
-    <t>face/face009.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower017.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog028.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower029.jpg</t>
-  </si>
-  <si>
-    <t>face/face023.jpg</t>
-  </si>
-  <si>
-    <t>face/face000.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower006.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower015.jpg</t>
-  </si>
-  <si>
-    <t>house/house019.jpg</t>
-  </si>
-  <si>
-    <t>house/house004.jpg</t>
-  </si>
-  <si>
-    <t>house/house013.jpg</t>
-  </si>
-  <si>
-    <t>face/face020.jpg</t>
-  </si>
-  <si>
-    <t>face/face010.jpg</t>
-  </si>
-  <si>
-    <t>house/house009.jpg</t>
-  </si>
-  <si>
-    <t>face/face018.jpg</t>
-  </si>
-  <si>
-    <t>face/face025.jpg</t>
-  </si>
-  <si>
-    <t>face/face003.jpg</t>
-  </si>
-  <si>
-    <t>house/house006.jpg</t>
-  </si>
-  <si>
-    <t>house/house018.jpg</t>
-  </si>
-  <si>
-    <t>house/house001.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog016.jpg</t>
-  </si>
-  <si>
-    <t>face/face019.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog012.jpg</t>
-  </si>
-  <si>
-    <t>face/face021.jpg</t>
-  </si>
-  <si>
-    <t>house/house010.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower014.jpg</t>
-  </si>
-  <si>
-    <t>house/house031.jpg</t>
-  </si>
-  <si>
-    <t>face/face013.jpg</t>
-  </si>
-  <si>
-    <t>face/face014.jpg</t>
-  </si>
-  <si>
-    <t>face/face005.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog026.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower021.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog002.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog027.jpg</t>
-  </si>
-  <si>
-    <t>house/house026.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower002.jpg</t>
-  </si>
-  <si>
-    <t>house/house022.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog015.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower000.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog008.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog006.jpg</t>
-  </si>
-  <si>
-    <t>face/face011.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower012.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower010.jpg</t>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>kommen</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>leiten</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>nerven</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>mühen</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>sehen</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>schreiben</t>
+  </si>
+  <si>
+    <t>schweben</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>triefen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>leuchten</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>dürfen</t>
   </si>
   <si>
     <t>brauchen</t>
   </si>
   <si>
-    <t>bieten</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>hoffen</t>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>wachsen</t>
   </si>
   <si>
     <t>werden</t>
   </si>
   <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>geben</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>schweben</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>reizen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>retten</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>triefen</t>
+    <t>stopfen</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
   </si>
   <si>
     <t>sammeln</t>
   </si>
   <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>buchen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>schneiden</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>streichen</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
     <t>lügen</t>
   </si>
   <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>bilden</t>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>packen</t>
+  </si>
+  <si>
+    <t>faulen</t>
   </si>
   <si>
     <t>grüßen</t>
   </si>
   <si>
-    <t>nerven</t>
-  </si>
-  <si>
-    <t>segnen</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>decken</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>treten</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>zahlen</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>sehen</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>leuchten</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>stürmen</t>
-  </si>
-  <si>
     <t>kleben</t>
   </si>
   <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>packen</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>schwimmen</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>fordern</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>dringen</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>schreiben</t>
-  </si>
-  <si>
-    <t>seufzen</t>
+    <t>house</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
     <t>face</t>
-  </si>
-  <si>
-    <t>house</t>
   </si>
   <si>
     <t>dog</t>
@@ -1196,7 +1196,7 @@
         <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1207,7 +1207,7 @@
         <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1229,7 +1229,7 @@
         <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1240,7 +1240,7 @@
         <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1262,7 +1262,7 @@
         <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1273,7 +1273,7 @@
         <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1284,7 +1284,7 @@
         <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1295,7 +1295,7 @@
         <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1306,7 +1306,7 @@
         <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1317,7 +1317,7 @@
         <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1328,7 +1328,7 @@
         <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1350,7 +1350,7 @@
         <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1361,7 +1361,7 @@
         <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1372,7 +1372,7 @@
         <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1383,7 +1383,7 @@
         <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1394,7 +1394,7 @@
         <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1416,7 +1416,7 @@
         <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1427,7 +1427,7 @@
         <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1438,7 +1438,7 @@
         <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1449,7 +1449,7 @@
         <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1482,7 +1482,7 @@
         <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1493,7 +1493,7 @@
         <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1515,7 +1515,7 @@
         <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1537,7 +1537,7 @@
         <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1548,7 +1548,7 @@
         <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1559,7 +1559,7 @@
         <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1570,7 +1570,7 @@
         <v>166</v>
       </c>
       <c r="C37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1614,7 +1614,7 @@
         <v>170</v>
       </c>
       <c r="C41" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1625,7 +1625,7 @@
         <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1636,7 +1636,7 @@
         <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1647,7 +1647,7 @@
         <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1658,7 +1658,7 @@
         <v>174</v>
       </c>
       <c r="C45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1669,7 +1669,7 @@
         <v>175</v>
       </c>
       <c r="C46" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1680,7 +1680,7 @@
         <v>176</v>
       </c>
       <c r="C47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1691,7 +1691,7 @@
         <v>177</v>
       </c>
       <c r="C48" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1702,7 +1702,7 @@
         <v>178</v>
       </c>
       <c r="C49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1713,7 +1713,7 @@
         <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1724,7 +1724,7 @@
         <v>180</v>
       </c>
       <c r="C51" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1735,7 +1735,7 @@
         <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1746,7 +1746,7 @@
         <v>182</v>
       </c>
       <c r="C53" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1757,7 +1757,7 @@
         <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1768,7 +1768,7 @@
         <v>184</v>
       </c>
       <c r="C55" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1779,7 +1779,7 @@
         <v>185</v>
       </c>
       <c r="C56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1790,7 +1790,7 @@
         <v>186</v>
       </c>
       <c r="C57" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1801,7 +1801,7 @@
         <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1812,7 +1812,7 @@
         <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1834,7 +1834,7 @@
         <v>190</v>
       </c>
       <c r="C61" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1878,7 +1878,7 @@
         <v>194</v>
       </c>
       <c r="C65" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1911,7 +1911,7 @@
         <v>197</v>
       </c>
       <c r="C68" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1922,7 +1922,7 @@
         <v>198</v>
       </c>
       <c r="C69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1933,7 +1933,7 @@
         <v>199</v>
       </c>
       <c r="C70" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1944,7 +1944,7 @@
         <v>200</v>
       </c>
       <c r="C71" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1966,7 +1966,7 @@
         <v>202</v>
       </c>
       <c r="C73" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1977,7 +1977,7 @@
         <v>203</v>
       </c>
       <c r="C74" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1999,7 +1999,7 @@
         <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2010,7 +2010,7 @@
         <v>206</v>
       </c>
       <c r="C77" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2032,7 +2032,7 @@
         <v>208</v>
       </c>
       <c r="C79" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2043,7 +2043,7 @@
         <v>209</v>
       </c>
       <c r="C80" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2054,7 +2054,7 @@
         <v>210</v>
       </c>
       <c r="C81" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2065,7 +2065,7 @@
         <v>211</v>
       </c>
       <c r="C82" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2098,7 +2098,7 @@
         <v>214</v>
       </c>
       <c r="C85" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2109,7 +2109,7 @@
         <v>215</v>
       </c>
       <c r="C86" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2131,7 +2131,7 @@
         <v>217</v>
       </c>
       <c r="C88" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2142,7 +2142,7 @@
         <v>218</v>
       </c>
       <c r="C89" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2153,7 +2153,7 @@
         <v>219</v>
       </c>
       <c r="C90" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2164,7 +2164,7 @@
         <v>220</v>
       </c>
       <c r="C91" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2186,7 +2186,7 @@
         <v>222</v>
       </c>
       <c r="C93" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2208,7 +2208,7 @@
         <v>224</v>
       </c>
       <c r="C95" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2219,7 +2219,7 @@
         <v>225</v>
       </c>
       <c r="C96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2230,7 +2230,7 @@
         <v>226</v>
       </c>
       <c r="C97" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2241,7 +2241,7 @@
         <v>227</v>
       </c>
       <c r="C98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2274,7 +2274,7 @@
         <v>230</v>
       </c>
       <c r="C101" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2296,7 +2296,7 @@
         <v>232</v>
       </c>
       <c r="C103" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="C104" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>234</v>
       </c>
       <c r="C105" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2329,7 +2329,7 @@
         <v>235</v>
       </c>
       <c r="C106" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2340,7 +2340,7 @@
         <v>236</v>
       </c>
       <c r="C107" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2351,7 +2351,7 @@
         <v>237</v>
       </c>
       <c r="C108" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2362,7 +2362,7 @@
         <v>238</v>
       </c>
       <c r="C109" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2373,7 +2373,7 @@
         <v>239</v>
       </c>
       <c r="C110" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2384,7 +2384,7 @@
         <v>240</v>
       </c>
       <c r="C111" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2395,7 +2395,7 @@
         <v>241</v>
       </c>
       <c r="C112" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2406,7 +2406,7 @@
         <v>242</v>
       </c>
       <c r="C113" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2417,7 +2417,7 @@
         <v>243</v>
       </c>
       <c r="C114" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2428,7 +2428,7 @@
         <v>244</v>
       </c>
       <c r="C115" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2439,7 +2439,7 @@
         <v>245</v>
       </c>
       <c r="C116" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2450,7 +2450,7 @@
         <v>246</v>
       </c>
       <c r="C117" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2461,7 +2461,7 @@
         <v>247</v>
       </c>
       <c r="C118" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2472,7 +2472,7 @@
         <v>248</v>
       </c>
       <c r="C119" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2483,7 +2483,7 @@
         <v>249</v>
       </c>
       <c r="C120" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2505,7 +2505,7 @@
         <v>251</v>
       </c>
       <c r="C122" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2516,7 +2516,7 @@
         <v>252</v>
       </c>
       <c r="C123" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2527,7 +2527,7 @@
         <v>253</v>
       </c>
       <c r="C124" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2538,7 +2538,7 @@
         <v>254</v>
       </c>
       <c r="C125" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2549,7 +2549,7 @@
         <v>255</v>
       </c>
       <c r="C126" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2560,7 +2560,7 @@
         <v>256</v>
       </c>
       <c r="C127" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2571,7 +2571,7 @@
         <v>257</v>
       </c>
       <c r="C128" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2582,7 +2582,7 @@
         <v>258</v>
       </c>
       <c r="C129" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
